--- a/exp_result/figure.xlsx
+++ b/exp_result/figure.xlsx
@@ -366,10 +366,6 @@
       <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="false"/>
       <protection hidden="false" locked="true"/>
     </xf>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
     <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="2" fillId="0" fontId="11" numFmtId="165" xfId="0">
       <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="false"/>
       <protection hidden="false" locked="true"/>
@@ -400,6 +396,10 @@
     </xf>
     <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="2" fillId="0" fontId="13" numFmtId="164" xfId="0">
       <alignment horizontal="left" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0">
+      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="false"/>
       <protection hidden="false" locked="true"/>
     </xf>
     <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="2" fillId="0" fontId="0" numFmtId="164" xfId="0">
@@ -478,7 +478,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart243.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart260.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
@@ -2345,11 +2345,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="80764438"/>
-        <c:axId val="13331284"/>
+        <c:axId val="36073745"/>
+        <c:axId val="72471294"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="80764438"/>
+        <c:axId val="36073745"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2383,14 +2383,14 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="13331284"/>
+        <c:crossAx val="72471294"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="13331284"/>
+        <c:axId val="72471294"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2433,7 +2433,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="80764438"/>
+        <c:crossAx val="36073745"/>
         <c:crosses val="autoZero"/>
       </c:valAx>
       <c:spPr>
@@ -2468,7 +2468,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart244.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart261.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
@@ -3055,11 +3055,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="4878039"/>
-        <c:axId val="26714198"/>
+        <c:axId val="47435428"/>
+        <c:axId val="20902037"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="4878039"/>
+        <c:axId val="47435428"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3093,14 +3093,14 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="26714198"/>
+        <c:crossAx val="20902037"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="26714198"/>
+        <c:axId val="20902037"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3143,7 +3143,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="4878039"/>
+        <c:crossAx val="47435428"/>
         <c:crosses val="autoZero"/>
       </c:valAx>
       <c:spPr>
@@ -3178,7 +3178,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart245.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart262.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
@@ -3765,11 +3765,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="74352891"/>
-        <c:axId val="75592885"/>
+        <c:axId val="32408391"/>
+        <c:axId val="2259538"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="74352891"/>
+        <c:axId val="32408391"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3803,14 +3803,14 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="75592885"/>
+        <c:crossAx val="2259538"/>
         <c:crossesAt val="0"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="75592885"/>
+        <c:axId val="2259538"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3853,7 +3853,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="74352891"/>
+        <c:crossAx val="32408391"/>
         <c:crossesAt val="0"/>
       </c:valAx>
       <c:spPr>
@@ -3888,7 +3888,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart246.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart263.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
@@ -5755,11 +5755,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="84828292"/>
-        <c:axId val="7420745"/>
+        <c:axId val="95042195"/>
+        <c:axId val="86175236"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="84828292"/>
+        <c:axId val="95042195"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5793,14 +5793,14 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="7420745"/>
+        <c:crossAx val="86175236"/>
         <c:crossesAt val="0"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="7420745"/>
+        <c:axId val="86175236"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5843,7 +5843,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="84828292"/>
+        <c:crossAx val="95042195"/>
         <c:crossesAt val="0"/>
       </c:valAx>
       <c:spPr>
@@ -5878,7 +5878,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart247.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart264.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
@@ -6465,11 +6465,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="54824110"/>
-        <c:axId val="74140158"/>
+        <c:axId val="74701296"/>
+        <c:axId val="47020556"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="54824110"/>
+        <c:axId val="74701296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6503,14 +6503,14 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="74140158"/>
+        <c:crossAx val="47020556"/>
         <c:crossesAt val="0"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="74140158"/>
+        <c:axId val="47020556"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6553,7 +6553,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="54824110"/>
+        <c:crossAx val="74701296"/>
         <c:crossesAt val="0"/>
       </c:valAx>
       <c:spPr>
@@ -6588,7 +6588,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart248.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart265.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
@@ -8455,11 +8455,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="53766845"/>
-        <c:axId val="19925406"/>
+        <c:axId val="79183206"/>
+        <c:axId val="12420651"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="53766845"/>
+        <c:axId val="79183206"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8493,14 +8493,14 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="19925406"/>
+        <c:crossAx val="12420651"/>
         <c:crossesAt val="0"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="19925406"/>
+        <c:axId val="12420651"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8543,7 +8543,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="53766845"/>
+        <c:crossAx val="79183206"/>
         <c:crossesAt val="0"/>
       </c:valAx>
       <c:spPr>
@@ -8578,7 +8578,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart249.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart266.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
@@ -8798,11 +8798,11 @@
           </c:val>
         </c:ser>
         <c:gapWidth val="100"/>
-        <c:axId val="99462009"/>
-        <c:axId val="40491618"/>
+        <c:axId val="98994108"/>
+        <c:axId val="81752836"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="99462009"/>
+        <c:axId val="98994108"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8836,14 +8836,14 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="40491618"/>
+        <c:crossAx val="81752836"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="40491618"/>
+        <c:axId val="81752836"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8886,7 +8886,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="99462009"/>
+        <c:crossAx val="98994108"/>
         <c:crosses val="autoZero"/>
       </c:valAx>
       <c:spPr>
@@ -8921,7 +8921,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart250.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart267.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
@@ -9508,11 +9508,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="37719354"/>
-        <c:axId val="51973552"/>
+        <c:axId val="69328667"/>
+        <c:axId val="45475049"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="37719354"/>
+        <c:axId val="69328667"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9546,14 +9546,14 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="51973552"/>
+        <c:crossAx val="45475049"/>
         <c:crossesAt val="0"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="51973552"/>
+        <c:axId val="45475049"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9596,7 +9596,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="37719354"/>
+        <c:crossAx val="69328667"/>
         <c:crossesAt val="0"/>
       </c:valAx>
       <c:spPr>
@@ -9631,7 +9631,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart251.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart268.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
@@ -11498,11 +11498,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="2569629"/>
-        <c:axId val="4391664"/>
+        <c:axId val="8835786"/>
+        <c:axId val="87204942"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2569629"/>
+        <c:axId val="8835786"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11536,14 +11536,14 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="4391664"/>
+        <c:crossAx val="87204942"/>
         <c:crossesAt val="0"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="4391664"/>
+        <c:axId val="87204942"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11586,7 +11586,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="2569629"/>
+        <c:crossAx val="8835786"/>
         <c:crossesAt val="0"/>
       </c:valAx>
       <c:spPr>
@@ -11621,7 +11621,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart252.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart269.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
@@ -11841,11 +11841,11 @@
           </c:val>
         </c:ser>
         <c:gapWidth val="100"/>
-        <c:axId val="93964589"/>
-        <c:axId val="27082950"/>
+        <c:axId val="27763752"/>
+        <c:axId val="43660823"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="93964589"/>
+        <c:axId val="27763752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11879,14 +11879,14 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="27082950"/>
+        <c:crossAx val="43660823"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="27082950"/>
+        <c:axId val="43660823"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11929,7 +11929,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="93964589"/>
+        <c:crossAx val="27763752"/>
         <c:crosses val="autoZero"/>
       </c:valAx>
       <c:spPr>
@@ -11964,7 +11964,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart253.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart270.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
@@ -12551,11 +12551,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="17876275"/>
-        <c:axId val="29772351"/>
+        <c:axId val="87512840"/>
+        <c:axId val="90033825"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="17876275"/>
+        <c:axId val="87512840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12589,14 +12589,14 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="29772351"/>
+        <c:crossAx val="90033825"/>
         <c:crossesAt val="0"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="29772351"/>
+        <c:axId val="90033825"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12639,7 +12639,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="17876275"/>
+        <c:crossAx val="87512840"/>
         <c:crossesAt val="0"/>
       </c:valAx>
       <c:spPr>
@@ -12674,7 +12674,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart254.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart271.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
@@ -12894,11 +12894,11 @@
           </c:val>
         </c:ser>
         <c:gapWidth val="100"/>
-        <c:axId val="82308685"/>
-        <c:axId val="47791546"/>
+        <c:axId val="33914823"/>
+        <c:axId val="23964585"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="82308685"/>
+        <c:axId val="33914823"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12932,14 +12932,14 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="47791546"/>
+        <c:crossAx val="23964585"/>
         <c:crossesAt val="0"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="47791546"/>
+        <c:axId val="23964585"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12982,7 +12982,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="82308685"/>
+        <c:crossAx val="33914823"/>
         <c:crossesAt val="0"/>
       </c:valAx>
       <c:spPr>
@@ -13017,7 +13017,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart255.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart272.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
@@ -14884,11 +14884,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="62270073"/>
-        <c:axId val="37737648"/>
+        <c:axId val="90218351"/>
+        <c:axId val="9993580"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="62270073"/>
+        <c:axId val="90218351"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14922,14 +14922,14 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="37737648"/>
+        <c:crossAx val="9993580"/>
         <c:crossesAt val="0"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="37737648"/>
+        <c:axId val="9993580"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14972,7 +14972,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="62270073"/>
+        <c:crossAx val="90218351"/>
         <c:crossesAt val="0"/>
       </c:valAx>
       <c:spPr>
@@ -15007,7 +15007,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart256.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart273.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
@@ -15337,11 +15337,11 @@
           </c:val>
         </c:ser>
         <c:gapWidth val="100"/>
-        <c:axId val="83935393"/>
-        <c:axId val="184526"/>
+        <c:axId val="56235352"/>
+        <c:axId val="57182855"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="83935393"/>
+        <c:axId val="56235352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15357,14 +15357,14 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="184526"/>
+        <c:crossAx val="57182855"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="184526"/>
+        <c:axId val="57182855"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15389,7 +15389,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="83935393"/>
+        <c:crossAx val="56235352"/>
         <c:crosses val="autoZero"/>
       </c:valAx>
       <c:spPr>
@@ -15424,7 +15424,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart257.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart274.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
@@ -15754,11 +15754,11 @@
           </c:val>
         </c:ser>
         <c:gapWidth val="100"/>
-        <c:axId val="23562404"/>
-        <c:axId val="32270767"/>
+        <c:axId val="19353127"/>
+        <c:axId val="54353756"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="23562404"/>
+        <c:axId val="19353127"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15774,14 +15774,14 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="32270767"/>
+        <c:crossAx val="54353756"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="32270767"/>
+        <c:axId val="54353756"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15806,7 +15806,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="23562404"/>
+        <c:crossAx val="19353127"/>
         <c:crosses val="autoZero"/>
       </c:valAx>
       <c:spPr>
@@ -15841,7 +15841,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart258.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart275.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
@@ -16171,11 +16171,11 @@
           </c:val>
         </c:ser>
         <c:gapWidth val="100"/>
-        <c:axId val="14448152"/>
-        <c:axId val="56843195"/>
+        <c:axId val="29025399"/>
+        <c:axId val="55426872"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="14448152"/>
+        <c:axId val="29025399"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -16191,14 +16191,14 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="56843195"/>
+        <c:crossAx val="55426872"/>
         <c:crossesAt val="0"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="56843195"/>
+        <c:axId val="55426872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -16223,7 +16223,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="14448152"/>
+        <c:crossAx val="29025399"/>
         <c:crossesAt val="0"/>
       </c:valAx>
       <c:spPr>
@@ -16258,7 +16258,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart259.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart276.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
@@ -16588,11 +16588,11 @@
           </c:val>
         </c:ser>
         <c:gapWidth val="100"/>
-        <c:axId val="98118403"/>
-        <c:axId val="71842543"/>
+        <c:axId val="79341402"/>
+        <c:axId val="76460827"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="98118403"/>
+        <c:axId val="79341402"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -16608,14 +16608,14 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="71842543"/>
+        <c:crossAx val="76460827"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="71842543"/>
+        <c:axId val="76460827"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -16640,7 +16640,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="98118403"/>
+        <c:crossAx val="79341402"/>
         <c:crosses val="autoZero"/>
       </c:valAx>
       <c:spPr>
@@ -18521,7 +18521,7 @@
   <dimension ref="A1:F36"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="E9" activeCellId="0" pane="topLeft" sqref="E9"/>
+      <selection activeCell="F12" activeCellId="0" pane="topLeft" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="24"/>
@@ -18605,7 +18605,7 @@
       <c r="A5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="9" t="n">
+      <c r="B5" s="3" t="n">
         <v>72.1</v>
       </c>
       <c r="C5" s="3" t="n">
@@ -18625,7 +18625,7 @@
       <c r="A6" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="9" t="n">
+      <c r="B6" s="3" t="n">
         <v>518</v>
       </c>
       <c r="C6" s="3" t="n">
@@ -18751,19 +18751,19 @@
       <c r="A17" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="10" t="n">
+      <c r="B17" s="9" t="n">
         <v>610177390</v>
       </c>
-      <c r="C17" s="11" t="n">
+      <c r="C17" s="10" t="n">
         <v>129639608</v>
       </c>
-      <c r="D17" s="10" t="n">
+      <c r="D17" s="9" t="n">
         <v>370755163</v>
       </c>
-      <c r="E17" s="10" t="n">
+      <c r="E17" s="9" t="n">
         <v>200782497</v>
       </c>
-      <c r="F17" s="10" t="n">
+      <c r="F17" s="9" t="n">
         <v>129633747</v>
       </c>
     </row>
@@ -18771,19 +18771,19 @@
       <c r="A18" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="10" t="n">
+      <c r="B18" s="9" t="n">
         <v>596605140</v>
       </c>
-      <c r="C18" s="11" t="n">
+      <c r="C18" s="10" t="n">
         <v>86868777</v>
       </c>
-      <c r="D18" s="10" t="n">
+      <c r="D18" s="9" t="n">
         <v>235970840</v>
       </c>
-      <c r="E18" s="10" t="n">
+      <c r="E18" s="9" t="n">
         <v>198015767</v>
       </c>
-      <c r="F18" s="10" t="n">
+      <c r="F18" s="9" t="n">
         <v>86867884</v>
       </c>
     </row>
@@ -18791,19 +18791,19 @@
       <c r="A19" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B19" s="10" t="n">
+      <c r="B19" s="9" t="n">
         <v>589556446</v>
       </c>
-      <c r="C19" s="11" t="n">
+      <c r="C19" s="10" t="n">
         <v>139523979</v>
       </c>
-      <c r="D19" s="10" t="n">
+      <c r="D19" s="9" t="n">
         <v>585214921</v>
       </c>
-      <c r="E19" s="10" t="n">
+      <c r="E19" s="9" t="n">
         <v>201507491</v>
       </c>
-      <c r="F19" s="10" t="n">
+      <c r="F19" s="9" t="n">
         <v>139514355</v>
       </c>
     </row>
@@ -18811,19 +18811,19 @@
       <c r="A20" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B20" s="10" t="n">
+      <c r="B20" s="9" t="n">
         <v>632012049</v>
       </c>
-      <c r="C20" s="11" t="n">
+      <c r="C20" s="10" t="n">
         <v>87025191</v>
       </c>
-      <c r="D20" s="10" t="n">
+      <c r="D20" s="9" t="n">
         <v>243038014</v>
       </c>
-      <c r="E20" s="10" t="n">
+      <c r="E20" s="9" t="n">
         <v>200456553</v>
       </c>
-      <c r="F20" s="10" t="n">
+      <c r="F20" s="9" t="n">
         <v>87024279</v>
       </c>
     </row>
@@ -18831,19 +18831,19 @@
       <c r="A21" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B21" s="10" t="n">
+      <c r="B21" s="9" t="n">
         <v>556288257</v>
       </c>
-      <c r="C21" s="11" t="n">
+      <c r="C21" s="10" t="n">
         <v>453042555</v>
       </c>
-      <c r="D21" s="10" t="n">
+      <c r="D21" s="9" t="n">
         <v>565470664</v>
       </c>
-      <c r="E21" s="10" t="n">
+      <c r="E21" s="9" t="n">
         <v>201469456</v>
       </c>
-      <c r="F21" s="10" t="n">
+      <c r="F21" s="9" t="n">
         <v>452660678</v>
       </c>
     </row>
@@ -18851,19 +18851,19 @@
       <c r="A22" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B22" s="10" t="n">
+      <c r="B22" s="9" t="n">
         <v>639275393</v>
       </c>
-      <c r="C22" s="11" t="n">
+      <c r="C22" s="10" t="n">
         <v>386922465</v>
       </c>
-      <c r="D22" s="10" t="n">
+      <c r="D22" s="9" t="n">
         <v>195737997</v>
       </c>
-      <c r="E22" s="10" t="n">
+      <c r="E22" s="9" t="n">
         <v>199650829</v>
       </c>
-      <c r="F22" s="10" t="n">
+      <c r="F22" s="9" t="n">
         <v>385800474</v>
       </c>
     </row>
@@ -18871,19 +18871,19 @@
       <c r="A23" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B23" s="10" t="n">
+      <c r="B23" s="9" t="n">
         <v>803191351</v>
       </c>
-      <c r="C23" s="11" t="n">
+      <c r="C23" s="10" t="n">
         <v>113328330</v>
       </c>
-      <c r="D23" s="10" t="n">
+      <c r="D23" s="9" t="n">
         <v>474799118</v>
       </c>
-      <c r="E23" s="10" t="n">
+      <c r="E23" s="9" t="n">
         <v>199548453</v>
       </c>
-      <c r="F23" s="10" t="n">
+      <c r="F23" s="9" t="n">
         <v>113323833</v>
       </c>
     </row>
@@ -18891,19 +18891,19 @@
       <c r="A24" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B24" s="10" t="n">
+      <c r="B24" s="9" t="n">
         <v>612324367</v>
       </c>
-      <c r="C24" s="11" t="n">
+      <c r="C24" s="10" t="n">
         <v>413461554</v>
       </c>
-      <c r="D24" s="10" t="n">
+      <c r="D24" s="9" t="n">
         <v>568274521</v>
       </c>
-      <c r="E24" s="10" t="n">
+      <c r="E24" s="9" t="n">
         <v>200593583</v>
       </c>
-      <c r="F24" s="10" t="n">
+      <c r="F24" s="9" t="n">
         <v>412333863</v>
       </c>
     </row>
@@ -18911,19 +18911,19 @@
       <c r="A25" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B25" s="10" t="n">
+      <c r="B25" s="9" t="n">
         <v>766398717</v>
       </c>
-      <c r="C25" s="11" t="n">
+      <c r="C25" s="10" t="n">
         <v>86789429</v>
       </c>
-      <c r="D25" s="10" t="n">
+      <c r="D25" s="9" t="n">
         <v>258974976</v>
       </c>
-      <c r="E25" s="10" t="n">
+      <c r="E25" s="9" t="n">
         <v>201612541</v>
       </c>
-      <c r="F25" s="10" t="n">
+      <c r="F25" s="9" t="n">
         <v>86788476</v>
       </c>
     </row>
@@ -18931,19 +18931,19 @@
       <c r="A26" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B26" s="10" t="n">
+      <c r="B26" s="9" t="n">
         <v>613764095</v>
       </c>
-      <c r="C26" s="11" t="n">
+      <c r="C26" s="10" t="n">
         <v>131481872</v>
       </c>
-      <c r="D26" s="10" t="n">
+      <c r="D26" s="9" t="n">
         <v>608450334</v>
       </c>
-      <c r="E26" s="10" t="n">
+      <c r="E26" s="9" t="n">
         <v>198056126</v>
       </c>
-      <c r="F26" s="10" t="n">
+      <c r="F26" s="9" t="n">
         <v>131475850</v>
       </c>
     </row>
@@ -18951,19 +18951,19 @@
       <c r="A27" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B27" s="10" t="n">
+      <c r="B27" s="9" t="n">
         <v>661443671</v>
       </c>
-      <c r="C27" s="11" t="n">
+      <c r="C27" s="10" t="n">
         <v>80222339</v>
       </c>
-      <c r="D27" s="10" t="n">
+      <c r="D27" s="9" t="n">
         <v>267916338</v>
       </c>
-      <c r="E27" s="10" t="n">
+      <c r="E27" s="9" t="n">
         <v>198055850</v>
       </c>
-      <c r="F27" s="10" t="n">
+      <c r="F27" s="9" t="n">
         <v>80221601</v>
       </c>
     </row>
@@ -18971,19 +18971,19 @@
       <c r="A28" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B28" s="10" t="n">
+      <c r="B28" s="9" t="n">
         <v>589596394</v>
       </c>
-      <c r="C28" s="11" t="n">
+      <c r="C28" s="10" t="n">
         <v>142957255</v>
       </c>
-      <c r="D28" s="10" t="n">
+      <c r="D28" s="9" t="n">
         <v>478322952</v>
       </c>
-      <c r="E28" s="10" t="n">
+      <c r="E28" s="9" t="n">
         <v>196569888</v>
       </c>
-      <c r="F28" s="10" t="n">
+      <c r="F28" s="9" t="n">
         <v>142946573</v>
       </c>
     </row>
@@ -18991,19 +18991,19 @@
       <c r="A29" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B29" s="10" t="n">
+      <c r="B29" s="9" t="n">
         <v>609820455</v>
       </c>
-      <c r="C29" s="11" t="n">
+      <c r="C29" s="10" t="n">
         <v>80324073</v>
       </c>
-      <c r="D29" s="10" t="n">
+      <c r="D29" s="9" t="n">
         <v>245578441</v>
       </c>
-      <c r="E29" s="10" t="n">
+      <c r="E29" s="9" t="n">
         <v>202943871</v>
       </c>
-      <c r="F29" s="10" t="n">
+      <c r="F29" s="9" t="n">
         <v>80323343</v>
       </c>
     </row>
@@ -19011,19 +19011,19 @@
       <c r="A30" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B30" s="10" t="n">
+      <c r="B30" s="9" t="n">
         <v>609660712</v>
       </c>
-      <c r="C30" s="11" t="n">
+      <c r="C30" s="10" t="n">
         <v>466199747</v>
       </c>
-      <c r="D30" s="10" t="n">
+      <c r="D30" s="9" t="n">
         <v>625873334</v>
       </c>
-      <c r="E30" s="10" t="n">
+      <c r="E30" s="9" t="n">
         <v>200798845</v>
       </c>
-      <c r="F30" s="10" t="n">
+      <c r="F30" s="9" t="n">
         <v>465812831</v>
       </c>
     </row>
@@ -19031,19 +19031,19 @@
       <c r="A31" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B31" s="10" t="n">
+      <c r="B31" s="9" t="n">
         <v>601750729</v>
       </c>
-      <c r="C31" s="11" t="n">
+      <c r="C31" s="10" t="n">
         <v>86892928</v>
       </c>
-      <c r="D31" s="10" t="n">
+      <c r="D31" s="9" t="n">
         <v>212313256</v>
       </c>
-      <c r="E31" s="10" t="n">
+      <c r="E31" s="9" t="n">
         <v>199569002</v>
       </c>
-      <c r="F31" s="10" t="n">
+      <c r="F31" s="9" t="n">
         <v>86892014</v>
       </c>
     </row>
@@ -19051,19 +19051,19 @@
       <c r="A32" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B32" s="10" t="n">
+      <c r="B32" s="9" t="n">
         <v>748384539</v>
       </c>
-      <c r="C32" s="11" t="n">
+      <c r="C32" s="10" t="n">
         <v>413239153</v>
       </c>
-      <c r="D32" s="10" t="n">
+      <c r="D32" s="9" t="n">
         <v>585734298</v>
       </c>
-      <c r="E32" s="10" t="n">
+      <c r="E32" s="9" t="n">
         <v>198241482</v>
       </c>
-      <c r="F32" s="10" t="n">
+      <c r="F32" s="9" t="n">
         <v>412861323</v>
       </c>
     </row>
@@ -19071,19 +19071,19 @@
       <c r="A33" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B33" s="10" t="n">
+      <c r="B33" s="9" t="n">
         <v>669853633</v>
       </c>
-      <c r="C33" s="11" t="n">
+      <c r="C33" s="10" t="n">
         <v>420166436</v>
       </c>
-      <c r="D33" s="10" t="n">
+      <c r="D33" s="9" t="n">
         <v>236873689</v>
       </c>
-      <c r="E33" s="10" t="n">
+      <c r="E33" s="9" t="n">
         <v>200905005</v>
       </c>
-      <c r="F33" s="10" t="n">
+      <c r="F33" s="9" t="n">
         <v>419039047</v>
       </c>
     </row>
@@ -19091,19 +19091,19 @@
       <c r="A34" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B34" s="10" t="n">
+      <c r="B34" s="9" t="n">
         <v>881363303</v>
       </c>
-      <c r="C34" s="11" t="n">
+      <c r="C34" s="10" t="n">
         <v>71688535</v>
       </c>
-      <c r="D34" s="10" t="n">
+      <c r="D34" s="9" t="n">
         <v>394225005</v>
       </c>
-      <c r="E34" s="10" t="n">
+      <c r="E34" s="9" t="n">
         <v>199121799</v>
       </c>
-      <c r="F34" s="10" t="n">
+      <c r="F34" s="9" t="n">
         <v>71687994</v>
       </c>
     </row>
@@ -19111,19 +19111,19 @@
       <c r="A35" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B35" s="10" t="n">
+      <c r="B35" s="9" t="n">
         <v>616652515</v>
       </c>
-      <c r="C35" s="11" t="n">
+      <c r="C35" s="10" t="n">
         <v>131665130</v>
       </c>
-      <c r="D35" s="10" t="n">
+      <c r="D35" s="9" t="n">
         <v>582761821</v>
       </c>
-      <c r="E35" s="10" t="n">
+      <c r="E35" s="9" t="n">
         <v>199675385</v>
       </c>
-      <c r="F35" s="10" t="n">
+      <c r="F35" s="9" t="n">
         <v>131659078</v>
       </c>
     </row>
@@ -19131,19 +19131,19 @@
       <c r="A36" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B36" s="10" t="n">
+      <c r="B36" s="9" t="n">
         <v>721462100</v>
       </c>
-      <c r="C36" s="11" t="n">
+      <c r="C36" s="10" t="n">
         <v>78558063</v>
       </c>
-      <c r="D36" s="10" t="n">
+      <c r="D36" s="9" t="n">
         <v>263705850</v>
       </c>
-      <c r="E36" s="10" t="n">
+      <c r="E36" s="9" t="n">
         <v>202410341</v>
       </c>
-      <c r="F36" s="10" t="n">
+      <c r="F36" s="9" t="n">
         <v>78557409</v>
       </c>
     </row>
@@ -19178,12 +19178,12 @@
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="15.2212765957447"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="16.1063829787234"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="16.4468085106383"/>
-    <col collapsed="false" hidden="false" max="256" min="7" style="12" width="10.1106382978723"/>
+    <col collapsed="false" hidden="false" max="256" min="7" style="11" width="10.1106382978723"/>
     <col collapsed="false" hidden="false" max="1025" min="257" style="0" width="8.56595744680851"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="24" outlineLevel="0" r="1">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
     </row>
@@ -19288,12 +19288,12 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="24" outlineLevel="0" r="8">
-      <c r="A8" s="13" t="s">
+      <c r="A8" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="13"/>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="24" outlineLevel="0" r="9">
       <c r="A9" s="3" t="s">
@@ -19366,10 +19366,10 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="24" outlineLevel="0" r="15">
-      <c r="A15" s="12" t="s">
+      <c r="A15" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="C15" s="12" t="s">
+      <c r="C15" s="11" t="s">
         <v>10</v>
       </c>
     </row>
@@ -19397,19 +19397,19 @@
       <c r="A17" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="14" t="n">
+      <c r="B17" s="13" t="n">
         <v>117638487</v>
       </c>
-      <c r="C17" s="15" t="n">
+      <c r="C17" s="14" t="n">
         <v>10123017</v>
       </c>
-      <c r="D17" s="16" t="n">
+      <c r="D17" s="15" t="n">
         <v>207099135</v>
       </c>
-      <c r="E17" s="16" t="n">
+      <c r="E17" s="15" t="n">
         <v>199126653</v>
       </c>
-      <c r="F17" s="16" t="n">
+      <c r="F17" s="15" t="n">
         <v>10123016</v>
       </c>
     </row>
@@ -19417,19 +19417,19 @@
       <c r="A18" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="16" t="n">
+      <c r="B18" s="15" t="n">
         <v>132840790</v>
       </c>
-      <c r="C18" s="15" t="n">
+      <c r="C18" s="14" t="n">
         <v>10247603</v>
       </c>
-      <c r="D18" s="17" t="s">
+      <c r="D18" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="E18" s="16" t="n">
+      <c r="E18" s="15" t="n">
         <v>199288073</v>
       </c>
-      <c r="F18" s="16" t="n">
+      <c r="F18" s="15" t="n">
         <v>10247601</v>
       </c>
     </row>
@@ -19437,19 +19437,19 @@
       <c r="A19" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B19" s="16" t="n">
+      <c r="B19" s="15" t="n">
         <v>119838342</v>
       </c>
-      <c r="C19" s="15" t="n">
+      <c r="C19" s="14" t="n">
         <v>10210255</v>
       </c>
-      <c r="D19" s="16" t="n">
+      <c r="D19" s="15" t="n">
         <v>212526355</v>
       </c>
-      <c r="E19" s="16" t="n">
+      <c r="E19" s="15" t="n">
         <v>199371413</v>
       </c>
-      <c r="F19" s="16" t="n">
+      <c r="F19" s="15" t="n">
         <v>10210255</v>
       </c>
     </row>
@@ -19457,19 +19457,19 @@
       <c r="A20" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B20" s="16" t="n">
+      <c r="B20" s="15" t="n">
         <v>150513176</v>
       </c>
-      <c r="C20" s="15" t="n">
+      <c r="C20" s="14" t="n">
         <v>10329974</v>
       </c>
-      <c r="D20" s="16" t="n">
+      <c r="D20" s="15" t="n">
         <v>159111680</v>
       </c>
-      <c r="E20" s="16" t="n">
+      <c r="E20" s="15" t="n">
         <v>201130293</v>
       </c>
-      <c r="F20" s="16" t="n">
+      <c r="F20" s="15" t="n">
         <v>10329973</v>
       </c>
     </row>
@@ -19477,19 +19477,19 @@
       <c r="A21" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B21" s="16" t="n">
+      <c r="B21" s="15" t="n">
         <v>115966768</v>
       </c>
-      <c r="C21" s="15" t="n">
+      <c r="C21" s="14" t="n">
         <v>1606799164</v>
       </c>
-      <c r="D21" s="16" t="n">
+      <c r="D21" s="15" t="n">
         <v>182746967</v>
       </c>
-      <c r="E21" s="16" t="n">
+      <c r="E21" s="15" t="n">
         <v>201047791</v>
       </c>
-      <c r="F21" s="16" t="n">
+      <c r="F21" s="15" t="n">
         <v>12206437</v>
       </c>
     </row>
@@ -19497,19 +19497,19 @@
       <c r="A22" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B22" s="16" t="n">
+      <c r="B22" s="15" t="n">
         <v>433191195</v>
       </c>
-      <c r="C22" s="15" t="n">
+      <c r="C22" s="14" t="n">
         <v>16978436</v>
       </c>
-      <c r="D22" s="16" t="n">
+      <c r="D22" s="15" t="n">
         <v>166685763</v>
       </c>
-      <c r="E22" s="16" t="n">
+      <c r="E22" s="15" t="n">
         <v>198959637</v>
       </c>
-      <c r="F22" s="16" t="n">
+      <c r="F22" s="15" t="n">
         <v>16976684</v>
       </c>
     </row>
@@ -19517,19 +19517,19 @@
       <c r="A23" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B23" s="16" t="n">
+      <c r="B23" s="15" t="n">
         <v>160335384</v>
       </c>
-      <c r="C23" s="15" t="n">
+      <c r="C23" s="14" t="n">
         <v>10208593</v>
       </c>
-      <c r="D23" s="16" t="n">
+      <c r="D23" s="15" t="n">
         <v>191359542</v>
       </c>
-      <c r="E23" s="16" t="n">
+      <c r="E23" s="15" t="n">
         <v>199876056</v>
       </c>
-      <c r="F23" s="16" t="n">
+      <c r="F23" s="15" t="n">
         <v>10208592</v>
       </c>
     </row>
@@ -19537,19 +19537,19 @@
       <c r="A24" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B24" s="16" t="n">
+      <c r="B24" s="15" t="n">
         <v>108301120</v>
       </c>
-      <c r="C24" s="15" t="n">
+      <c r="C24" s="14" t="n">
         <v>22987023</v>
       </c>
-      <c r="D24" s="16" t="n">
+      <c r="D24" s="15" t="n">
         <v>169673990</v>
       </c>
-      <c r="E24" s="16" t="n">
+      <c r="E24" s="15" t="n">
         <v>201050169</v>
       </c>
-      <c r="F24" s="16" t="n">
+      <c r="F24" s="15" t="n">
         <v>22954240</v>
       </c>
     </row>
@@ -19557,19 +19557,19 @@
       <c r="A25" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B25" s="16" t="n">
+      <c r="B25" s="15" t="n">
         <v>175086630</v>
       </c>
-      <c r="C25" s="15" t="n">
+      <c r="C25" s="14" t="n">
         <v>30299997</v>
       </c>
-      <c r="D25" s="16" t="n">
+      <c r="D25" s="15" t="n">
         <v>211150641</v>
       </c>
-      <c r="E25" s="16" t="n">
+      <c r="E25" s="15" t="n">
         <v>200614168</v>
       </c>
-      <c r="F25" s="16" t="n">
+      <c r="F25" s="15" t="n">
         <v>30297870</v>
       </c>
     </row>
@@ -19577,19 +19577,19 @@
       <c r="A26" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B26" s="16" t="n">
+      <c r="B26" s="15" t="n">
         <v>105033635</v>
       </c>
-      <c r="C26" s="15" t="n">
+      <c r="C26" s="14" t="n">
         <v>33787213</v>
       </c>
-      <c r="D26" s="16" t="n">
+      <c r="D26" s="15" t="n">
         <v>186080427</v>
       </c>
-      <c r="E26" s="16" t="n">
+      <c r="E26" s="15" t="n">
         <v>199486549</v>
       </c>
-      <c r="F26" s="16" t="n">
+      <c r="F26" s="15" t="n">
         <v>33773086</v>
       </c>
     </row>
@@ -19597,19 +19597,19 @@
       <c r="A27" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B27" s="16" t="n">
+      <c r="B27" s="15" t="n">
         <v>931231263</v>
       </c>
-      <c r="C27" s="15" t="n">
+      <c r="C27" s="14" t="n">
         <v>828514944</v>
       </c>
-      <c r="D27" s="16" t="n">
+      <c r="D27" s="15" t="n">
         <v>191903436</v>
       </c>
-      <c r="E27" s="16" t="n">
+      <c r="E27" s="15" t="n">
         <v>199102932</v>
       </c>
-      <c r="F27" s="16" t="n">
+      <c r="F27" s="15" t="n">
         <v>31216537</v>
       </c>
     </row>
@@ -19617,19 +19617,19 @@
       <c r="A28" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B28" s="16" t="n">
+      <c r="B28" s="15" t="n">
         <v>157665218</v>
       </c>
-      <c r="C28" s="15" t="n">
+      <c r="C28" s="14" t="n">
         <v>81361133</v>
       </c>
-      <c r="D28" s="16" t="n">
+      <c r="D28" s="15" t="n">
         <v>231903624</v>
       </c>
-      <c r="E28" s="16" t="n">
+      <c r="E28" s="15" t="n">
         <v>199324786</v>
       </c>
-      <c r="F28" s="16" t="n">
+      <c r="F28" s="15" t="n">
         <v>81293149</v>
       </c>
     </row>
@@ -19637,19 +19637,19 @@
       <c r="A29" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B29" s="16" t="n">
+      <c r="B29" s="15" t="n">
         <v>120801641</v>
       </c>
-      <c r="C29" s="15" t="n">
+      <c r="C29" s="14" t="n">
         <v>30125649</v>
       </c>
-      <c r="D29" s="16" t="n">
+      <c r="D29" s="15" t="n">
         <v>194417978</v>
       </c>
-      <c r="E29" s="16" t="n">
+      <c r="E29" s="15" t="n">
         <v>199321246</v>
       </c>
-      <c r="F29" s="16" t="n">
+      <c r="F29" s="15" t="n">
         <v>30123548</v>
       </c>
     </row>
@@ -19657,19 +19657,19 @@
       <c r="A30" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B30" s="16" t="n">
+      <c r="B30" s="15" t="n">
         <v>256547769</v>
       </c>
-      <c r="C30" s="15" t="n">
+      <c r="C30" s="14" t="n">
         <v>338881868</v>
       </c>
-      <c r="D30" s="16" t="n">
+      <c r="D30" s="15" t="n">
         <v>229687820</v>
       </c>
-      <c r="E30" s="16" t="n">
+      <c r="E30" s="15" t="n">
         <v>201175722</v>
       </c>
-      <c r="F30" s="16" t="n">
+      <c r="F30" s="15" t="n">
         <v>338573815</v>
       </c>
     </row>
@@ -19677,19 +19677,19 @@
       <c r="A31" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B31" s="16" t="n">
+      <c r="B31" s="15" t="n">
         <v>130335158</v>
       </c>
-      <c r="C31" s="15" t="n">
+      <c r="C31" s="14" t="n">
         <v>30122450</v>
       </c>
-      <c r="D31" s="16" t="n">
+      <c r="D31" s="15" t="n">
         <v>204385641</v>
       </c>
-      <c r="E31" s="16" t="n">
+      <c r="E31" s="15" t="n">
         <v>201066857</v>
       </c>
-      <c r="F31" s="16" t="n">
+      <c r="F31" s="15" t="n">
         <v>30120409</v>
       </c>
     </row>
@@ -19697,19 +19697,19 @@
       <c r="A32" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B32" s="16" t="n">
+      <c r="B32" s="15" t="n">
         <v>148617661</v>
       </c>
-      <c r="C32" s="15" t="n">
+      <c r="C32" s="14" t="n">
         <v>30024287</v>
       </c>
-      <c r="D32" s="16" t="n">
+      <c r="D32" s="15" t="n">
         <v>238559372</v>
       </c>
-      <c r="E32" s="16" t="n">
+      <c r="E32" s="15" t="n">
         <v>199090559</v>
       </c>
-      <c r="F32" s="16" t="n">
+      <c r="F32" s="15" t="n">
         <v>30022187</v>
       </c>
     </row>
@@ -19717,19 +19717,19 @@
       <c r="A33" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B33" s="16" t="n">
+      <c r="B33" s="15" t="n">
         <v>339858259</v>
       </c>
-      <c r="C33" s="15" t="n">
+      <c r="C33" s="14" t="n">
         <v>828425423</v>
       </c>
-      <c r="D33" s="16" t="n">
+      <c r="D33" s="15" t="n">
         <v>207432791</v>
       </c>
-      <c r="E33" s="16" t="n">
+      <c r="E33" s="15" t="n">
         <v>199292376</v>
       </c>
-      <c r="F33" s="16" t="n">
+      <c r="F33" s="15" t="n">
         <v>31126911</v>
       </c>
     </row>
@@ -19737,19 +19737,19 @@
       <c r="A34" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B34" s="16" t="n">
+      <c r="B34" s="15" t="n">
         <v>170647805</v>
       </c>
-      <c r="C34" s="15" t="n">
+      <c r="C34" s="14" t="n">
         <v>30187878</v>
       </c>
-      <c r="D34" s="16" t="n">
+      <c r="D34" s="15" t="n">
         <v>229145449</v>
       </c>
-      <c r="E34" s="16" t="n">
+      <c r="E34" s="15" t="n">
         <v>199351204</v>
       </c>
-      <c r="F34" s="16" t="n">
+      <c r="F34" s="15" t="n">
         <v>30185817</v>
       </c>
     </row>
@@ -19757,19 +19757,19 @@
       <c r="A35" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B35" s="16" t="n">
+      <c r="B35" s="15" t="n">
         <v>118565721</v>
       </c>
-      <c r="C35" s="15" t="n">
+      <c r="C35" s="14" t="n">
         <v>10041789</v>
       </c>
-      <c r="D35" s="16" t="n">
+      <c r="D35" s="15" t="n">
         <v>196857801</v>
       </c>
-      <c r="E35" s="16" t="n">
+      <c r="E35" s="15" t="n">
         <v>201184186</v>
       </c>
-      <c r="F35" s="16" t="n">
+      <c r="F35" s="15" t="n">
         <v>10041788</v>
       </c>
     </row>
@@ -19777,19 +19777,19 @@
       <c r="A36" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B36" s="16" t="n">
+      <c r="B36" s="15" t="n">
         <v>182291801</v>
       </c>
-      <c r="C36" s="15" t="n">
+      <c r="C36" s="14" t="n">
         <v>30339703</v>
       </c>
-      <c r="D36" s="16" t="n">
+      <c r="D36" s="15" t="n">
         <v>212827921</v>
       </c>
-      <c r="E36" s="16" t="n">
+      <c r="E36" s="15" t="n">
         <v>201123383</v>
       </c>
-      <c r="F36" s="16" t="n">
+      <c r="F36" s="15" t="n">
         <v>30337604</v>
       </c>
     </row>
@@ -19828,7 +19828,7 @@
     <col collapsed="false" hidden="false" max="1025" min="257" style="0" width="8.56595744680851"/>
   </cols>
   <sheetData>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="24" outlineLevel="0" r="1" s="9">
+    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="24" outlineLevel="0" r="1" s="17">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -19933,7 +19933,7 @@
         <v>226</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="24" outlineLevel="0" r="8" s="9">
+    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="24" outlineLevel="0" r="8" s="17">
       <c r="A8" s="1" t="s">
         <v>11</v>
       </c>
@@ -20011,11 +20011,11 @@
         <v>12.5</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="24" outlineLevel="0" r="15" s="9">
-      <c r="A15" s="9" t="s">
+    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="24" outlineLevel="0" r="15" s="17">
+      <c r="A15" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="C15" s="9" t="s">
+      <c r="C15" s="17" t="s">
         <v>10</v>
       </c>
     </row>
@@ -20043,19 +20043,19 @@
       <c r="A17" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="15" t="n">
+      <c r="B17" s="14" t="n">
         <v>118582663</v>
       </c>
-      <c r="C17" s="15" t="n">
+      <c r="C17" s="14" t="n">
         <v>10126189</v>
       </c>
-      <c r="D17" s="15" t="n">
+      <c r="D17" s="14" t="n">
         <v>117182547</v>
       </c>
-      <c r="E17" s="15" t="n">
+      <c r="E17" s="14" t="n">
         <v>200919452</v>
       </c>
-      <c r="F17" s="15" t="n">
+      <c r="F17" s="14" t="n">
         <v>10126188</v>
       </c>
     </row>
@@ -20063,19 +20063,19 @@
       <c r="A18" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="15" t="n">
+      <c r="B18" s="14" t="n">
         <v>134433075</v>
       </c>
-      <c r="C18" s="15" t="n">
+      <c r="C18" s="14" t="n">
         <v>10248428</v>
       </c>
-      <c r="D18" s="15" t="n">
+      <c r="D18" s="14" t="n">
         <v>10368995</v>
       </c>
-      <c r="E18" s="15" t="n">
+      <c r="E18" s="14" t="n">
         <v>199683640</v>
       </c>
-      <c r="F18" s="15" t="n">
+      <c r="F18" s="14" t="n">
         <v>10248428</v>
       </c>
     </row>
@@ -20083,19 +20083,19 @@
       <c r="A19" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B19" s="15" t="n">
+      <c r="B19" s="14" t="n">
         <v>120356840</v>
       </c>
-      <c r="C19" s="15" t="n">
+      <c r="C19" s="14" t="n">
         <v>10205107</v>
       </c>
-      <c r="D19" s="15" t="n">
+      <c r="D19" s="14" t="n">
         <v>61107370</v>
       </c>
-      <c r="E19" s="15" t="n">
+      <c r="E19" s="14" t="n">
         <v>201462559</v>
       </c>
-      <c r="F19" s="15" t="n">
+      <c r="F19" s="14" t="n">
         <v>10205105</v>
       </c>
     </row>
@@ -20103,19 +20103,19 @@
       <c r="A20" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B20" s="15" t="n">
+      <c r="B20" s="14" t="n">
         <v>154078494</v>
       </c>
-      <c r="C20" s="15" t="n">
+      <c r="C20" s="14" t="n">
         <v>10325903</v>
       </c>
-      <c r="D20" s="15" t="n">
+      <c r="D20" s="14" t="n">
         <v>30346388</v>
       </c>
-      <c r="E20" s="15" t="n">
+      <c r="E20" s="14" t="n">
         <v>199111109</v>
       </c>
-      <c r="F20" s="15" t="n">
+      <c r="F20" s="14" t="n">
         <v>10325902</v>
       </c>
     </row>
@@ -20123,19 +20123,19 @@
       <c r="A21" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B21" s="15" t="n">
+      <c r="B21" s="14" t="n">
         <v>117450618</v>
       </c>
-      <c r="C21" s="15" t="n">
+      <c r="C21" s="14" t="n">
         <v>1606813145</v>
       </c>
-      <c r="D21" s="15" t="n">
+      <c r="D21" s="14" t="n">
         <v>33432665</v>
       </c>
-      <c r="E21" s="15" t="n">
+      <c r="E21" s="14" t="n">
         <v>198814542</v>
       </c>
-      <c r="F21" s="15" t="n">
+      <c r="F21" s="14" t="n">
         <v>12212696</v>
       </c>
     </row>
@@ -20143,19 +20143,19 @@
       <c r="A22" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B22" s="15" t="n">
+      <c r="B22" s="14" t="n">
         <v>956833278</v>
       </c>
-      <c r="C22" s="15" t="n">
+      <c r="C22" s="14" t="n">
         <v>16965048</v>
       </c>
-      <c r="D22" s="15" t="n">
+      <c r="D22" s="14" t="n">
         <v>1626943113</v>
       </c>
-      <c r="E22" s="15" t="n">
+      <c r="E22" s="14" t="n">
         <v>199793674</v>
       </c>
-      <c r="F22" s="15" t="n">
+      <c r="F22" s="14" t="n">
         <v>16963509</v>
       </c>
     </row>
@@ -20163,19 +20163,19 @@
       <c r="A23" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B23" s="15" t="n">
+      <c r="B23" s="14" t="n">
         <v>167353645</v>
       </c>
-      <c r="C23" s="15" t="n">
+      <c r="C23" s="14" t="n">
         <v>10205210</v>
       </c>
-      <c r="D23" s="15" t="n">
+      <c r="D23" s="14" t="n">
         <v>22579693</v>
       </c>
-      <c r="E23" s="15" t="n">
+      <c r="E23" s="14" t="n">
         <v>201275806</v>
       </c>
-      <c r="F23" s="15" t="n">
+      <c r="F23" s="14" t="n">
         <v>10205207</v>
       </c>
     </row>
@@ -20183,19 +20183,19 @@
       <c r="A24" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B24" s="15" t="n">
+      <c r="B24" s="14" t="n">
         <v>108991567</v>
       </c>
-      <c r="C24" s="15" t="n">
+      <c r="C24" s="14" t="n">
         <v>22990586</v>
       </c>
-      <c r="D24" s="15" t="n">
+      <c r="D24" s="14" t="n">
         <v>30286171</v>
       </c>
-      <c r="E24" s="15" t="n">
+      <c r="E24" s="14" t="n">
         <v>199338518</v>
       </c>
-      <c r="F24" s="15" t="n">
+      <c r="F24" s="14" t="n">
         <v>22958835</v>
       </c>
     </row>
@@ -20203,19 +20203,19 @@
       <c r="A25" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B25" s="15" t="n">
+      <c r="B25" s="14" t="n">
         <v>177195683</v>
       </c>
-      <c r="C25" s="15" t="n">
+      <c r="C25" s="14" t="n">
         <v>30303259</v>
       </c>
-      <c r="D25" s="15" t="n">
+      <c r="D25" s="14" t="n">
         <v>16686231</v>
       </c>
-      <c r="E25" s="15" t="n">
+      <c r="E25" s="14" t="n">
         <v>198495152</v>
       </c>
-      <c r="F25" s="15" t="n">
+      <c r="F25" s="14" t="n">
         <v>30301481</v>
       </c>
     </row>
@@ -20223,19 +20223,19 @@
       <c r="A26" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B26" s="15" t="n">
+      <c r="B26" s="14" t="n">
         <v>105821977</v>
       </c>
-      <c r="C26" s="15" t="n">
+      <c r="C26" s="14" t="n">
         <v>33787917</v>
       </c>
-      <c r="D26" s="15" t="n">
+      <c r="D26" s="14" t="n">
         <v>30132667</v>
       </c>
-      <c r="E26" s="15" t="n">
+      <c r="E26" s="14" t="n">
         <v>201080670</v>
       </c>
-      <c r="F26" s="15" t="n">
+      <c r="F26" s="14" t="n">
         <v>33774243</v>
       </c>
     </row>
@@ -20243,19 +20243,19 @@
       <c r="A27" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B27" s="15" t="n">
+      <c r="B27" s="14" t="n">
         <v>964964182</v>
       </c>
-      <c r="C27" s="15" t="n">
+      <c r="C27" s="14" t="n">
         <v>828520283</v>
       </c>
-      <c r="D27" s="15" t="n">
+      <c r="D27" s="14" t="n">
         <v>30329186</v>
       </c>
-      <c r="E27" s="15" t="n">
+      <c r="E27" s="14" t="n">
         <v>200898560</v>
       </c>
-      <c r="F27" s="15" t="n">
+      <c r="F27" s="14" t="n">
         <v>31218362</v>
       </c>
     </row>
@@ -20263,19 +20263,19 @@
       <c r="A28" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B28" s="15" t="n">
+      <c r="B28" s="14" t="n">
         <v>165550290</v>
       </c>
-      <c r="C28" s="15" t="n">
+      <c r="C28" s="14" t="n">
         <v>81349074</v>
       </c>
-      <c r="D28" s="15" t="n">
+      <c r="D28" s="14" t="n">
         <v>828268037</v>
       </c>
-      <c r="E28" s="15" t="n">
+      <c r="E28" s="14" t="n">
         <v>199714803</v>
       </c>
-      <c r="F28" s="15" t="n">
+      <c r="F28" s="14" t="n">
         <v>81282420</v>
       </c>
     </row>
@@ -20283,19 +20283,19 @@
       <c r="A29" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B29" s="15" t="n">
+      <c r="B29" s="14" t="n">
         <v>121836238</v>
       </c>
-      <c r="C29" s="15" t="n">
+      <c r="C29" s="14" t="n">
         <v>30132773</v>
       </c>
-      <c r="D29" s="15" t="n">
+      <c r="D29" s="14" t="n">
         <v>30497900</v>
       </c>
-      <c r="E29" s="15" t="n">
+      <c r="E29" s="14" t="n">
         <v>201454643</v>
       </c>
-      <c r="F29" s="15" t="n">
+      <c r="F29" s="14" t="n">
         <v>30131027</v>
       </c>
     </row>
@@ -20303,19 +20303,19 @@
       <c r="A30" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B30" s="15" t="n">
+      <c r="B30" s="14" t="n">
         <v>266671929</v>
       </c>
-      <c r="C30" s="15" t="n">
+      <c r="C30" s="14" t="n">
         <v>338893684</v>
       </c>
-      <c r="D30" s="15" t="n">
+      <c r="D30" s="14" t="n">
         <v>10004289</v>
       </c>
-      <c r="E30" s="15" t="n">
+      <c r="E30" s="14" t="n">
         <v>199116753</v>
       </c>
-      <c r="F30" s="15" t="n">
+      <c r="F30" s="14" t="n">
         <v>338592708</v>
       </c>
     </row>
@@ -20323,19 +20323,19 @@
       <c r="A31" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B31" s="15" t="n">
+      <c r="B31" s="14" t="n">
         <v>131904682</v>
       </c>
-      <c r="C31" s="15" t="n">
+      <c r="C31" s="14" t="n">
         <v>30127389</v>
       </c>
-      <c r="D31" s="15" t="n">
+      <c r="D31" s="14" t="n">
         <v>30703274</v>
       </c>
-      <c r="E31" s="15" t="n">
+      <c r="E31" s="14" t="n">
         <v>198817526</v>
       </c>
-      <c r="F31" s="15" t="n">
+      <c r="F31" s="14" t="n">
         <v>30125599</v>
       </c>
     </row>
@@ -20343,19 +20343,19 @@
       <c r="A32" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B32" s="15" t="n">
+      <c r="B32" s="14" t="n">
         <v>149789031</v>
       </c>
-      <c r="C32" s="15" t="n">
+      <c r="C32" s="14" t="n">
         <v>30016983</v>
       </c>
-      <c r="D32" s="15" t="n">
+      <c r="D32" s="14" t="n">
         <v>10004830</v>
       </c>
-      <c r="E32" s="15" t="n">
+      <c r="E32" s="14" t="n">
         <v>200960014</v>
       </c>
-      <c r="F32" s="15" t="n">
+      <c r="F32" s="14" t="n">
         <v>30015165</v>
       </c>
     </row>
@@ -20363,19 +20363,19 @@
       <c r="A33" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B33" s="15" t="n">
+      <c r="B33" s="14" t="n">
         <v>346741688</v>
       </c>
-      <c r="C33" s="15" t="n">
+      <c r="C33" s="14" t="n">
         <v>828426078</v>
       </c>
-      <c r="D33" s="15" t="n">
+      <c r="D33" s="14" t="n">
         <v>232272280</v>
       </c>
-      <c r="E33" s="15" t="n">
+      <c r="E33" s="14" t="n">
         <v>199636589</v>
       </c>
-      <c r="F33" s="15" t="n">
+      <c r="F33" s="14" t="n">
         <v>31124177</v>
       </c>
     </row>
@@ -20383,19 +20383,19 @@
       <c r="A34" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B34" s="15" t="n">
+      <c r="B34" s="14" t="n">
         <v>171028004</v>
       </c>
-      <c r="C34" s="15" t="n">
+      <c r="C34" s="14" t="n">
         <v>30175628</v>
       </c>
-      <c r="D34" s="15" t="n">
+      <c r="D34" s="14" t="n">
         <v>808345115</v>
       </c>
-      <c r="E34" s="15" t="n">
+      <c r="E34" s="14" t="n">
         <v>201464941</v>
       </c>
-      <c r="F34" s="15" t="n">
+      <c r="F34" s="14" t="n">
         <v>30173780</v>
       </c>
     </row>
@@ -20403,19 +20403,19 @@
       <c r="A35" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B35" s="15" t="n">
+      <c r="B35" s="14" t="n">
         <v>119484573</v>
       </c>
-      <c r="C35" s="15" t="n">
+      <c r="C35" s="14" t="n">
         <v>10042177</v>
       </c>
-      <c r="D35" s="15" t="n">
+      <c r="D35" s="14" t="n">
         <v>30303424</v>
       </c>
-      <c r="E35" s="15" t="n">
+      <c r="E35" s="14" t="n">
         <v>199109475</v>
       </c>
-      <c r="F35" s="15" t="n">
+      <c r="F35" s="14" t="n">
         <v>10042177</v>
       </c>
     </row>
@@ -20423,19 +20423,19 @@
       <c r="A36" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B36" s="15" t="n">
+      <c r="B36" s="14" t="n">
         <v>181854606</v>
       </c>
-      <c r="C36" s="15" t="n">
+      <c r="C36" s="14" t="n">
         <v>30341308</v>
       </c>
-      <c r="D36" s="15" t="n">
+      <c r="D36" s="14" t="n">
         <v>10201929</v>
       </c>
-      <c r="E36" s="15" t="n">
+      <c r="E36" s="14" t="n">
         <v>198835860</v>
       </c>
-      <c r="F36" s="15" t="n">
+      <c r="F36" s="14" t="n">
         <v>30339475</v>
       </c>
     </row>
@@ -20489,7 +20489,7 @@
       <c r="B4" s="8" t="n">
         <v>85889982</v>
       </c>
-      <c r="C4" s="10" t="n">
+      <c r="C4" s="9" t="n">
         <v>200782497</v>
       </c>
     </row>
@@ -20500,7 +20500,7 @@
       <c r="B5" s="8" t="n">
         <v>86326753</v>
       </c>
-      <c r="C5" s="10" t="n">
+      <c r="C5" s="9" t="n">
         <v>198015767</v>
       </c>
     </row>
@@ -20511,7 +20511,7 @@
       <c r="B6" s="8" t="n">
         <v>92441831</v>
       </c>
-      <c r="C6" s="10" t="n">
+      <c r="C6" s="9" t="n">
         <v>201507491</v>
       </c>
     </row>
@@ -20522,7 +20522,7 @@
       <c r="B7" s="8" t="n">
         <v>88390618</v>
       </c>
-      <c r="C7" s="10" t="n">
+      <c r="C7" s="9" t="n">
         <v>200456553</v>
       </c>
     </row>
@@ -20533,7 +20533,7 @@
       <c r="B8" s="8" t="n">
         <v>87100621</v>
       </c>
-      <c r="C8" s="10" t="n">
+      <c r="C8" s="9" t="n">
         <v>201469456</v>
       </c>
     </row>
@@ -20544,7 +20544,7 @@
       <c r="B9" s="8" t="n">
         <v>45183323</v>
       </c>
-      <c r="C9" s="10" t="n">
+      <c r="C9" s="9" t="n">
         <v>199650829</v>
       </c>
     </row>
@@ -20555,7 +20555,7 @@
       <c r="B10" s="8" t="n">
         <v>48449880</v>
       </c>
-      <c r="C10" s="10" t="n">
+      <c r="C10" s="9" t="n">
         <v>199548453</v>
       </c>
     </row>
@@ -20566,7 +20566,7 @@
       <c r="B11" s="8" t="n">
         <v>53844429</v>
       </c>
-      <c r="C11" s="10" t="n">
+      <c r="C11" s="9" t="n">
         <v>200593583</v>
       </c>
     </row>
@@ -20577,7 +20577,7 @@
       <c r="B12" s="8" t="n">
         <v>59093945</v>
       </c>
-      <c r="C12" s="10" t="n">
+      <c r="C12" s="9" t="n">
         <v>201612541</v>
       </c>
     </row>
@@ -20588,7 +20588,7 @@
       <c r="B13" s="8" t="n">
         <v>57693136</v>
       </c>
-      <c r="C13" s="10" t="n">
+      <c r="C13" s="9" t="n">
         <v>198056126</v>
       </c>
     </row>
@@ -20599,7 +20599,7 @@
       <c r="B14" s="8" t="n">
         <v>73514007</v>
       </c>
-      <c r="C14" s="10" t="n">
+      <c r="C14" s="9" t="n">
         <v>198055850</v>
       </c>
     </row>
@@ -20610,7 +20610,7 @@
       <c r="B15" s="8" t="n">
         <v>78521475</v>
       </c>
-      <c r="C15" s="10" t="n">
+      <c r="C15" s="9" t="n">
         <v>196569888</v>
       </c>
     </row>
@@ -20621,7 +20621,7 @@
       <c r="B16" s="8" t="n">
         <v>75205826</v>
       </c>
-      <c r="C16" s="10" t="n">
+      <c r="C16" s="9" t="n">
         <v>202943871</v>
       </c>
     </row>
@@ -20632,7 +20632,7 @@
       <c r="B17" s="8" t="n">
         <v>71162646</v>
       </c>
-      <c r="C17" s="10" t="n">
+      <c r="C17" s="9" t="n">
         <v>200798845</v>
       </c>
     </row>
@@ -20643,7 +20643,7 @@
       <c r="B18" s="8" t="n">
         <v>75182142</v>
       </c>
-      <c r="C18" s="10" t="n">
+      <c r="C18" s="9" t="n">
         <v>199569002</v>
       </c>
     </row>
@@ -20654,7 +20654,7 @@
       <c r="B19" s="8" t="n">
         <v>55020266</v>
       </c>
-      <c r="C19" s="10" t="n">
+      <c r="C19" s="9" t="n">
         <v>198241482</v>
       </c>
     </row>
@@ -20665,7 +20665,7 @@
       <c r="B20" s="8" t="n">
         <v>54134706</v>
       </c>
-      <c r="C20" s="10" t="n">
+      <c r="C20" s="9" t="n">
         <v>200905005</v>
       </c>
     </row>
@@ -20676,7 +20676,7 @@
       <c r="B21" s="8" t="n">
         <v>57481333</v>
       </c>
-      <c r="C21" s="10" t="n">
+      <c r="C21" s="9" t="n">
         <v>199121799</v>
       </c>
     </row>
@@ -20687,7 +20687,7 @@
       <c r="B22" s="8" t="n">
         <v>48281837</v>
       </c>
-      <c r="C22" s="10" t="n">
+      <c r="C22" s="9" t="n">
         <v>199675385</v>
       </c>
     </row>
@@ -20698,7 +20698,7 @@
       <c r="B23" s="8" t="n">
         <v>54220285</v>
       </c>
-      <c r="C23" s="10" t="n">
+      <c r="C23" s="9" t="n">
         <v>202410341</v>
       </c>
     </row>
@@ -20720,7 +20720,7 @@
       <c r="B27" s="8" t="n">
         <v>81704694</v>
       </c>
-      <c r="C27" s="10" t="n">
+      <c r="C27" s="9" t="n">
         <v>610177390</v>
       </c>
     </row>
@@ -20731,7 +20731,7 @@
       <c r="B28" s="8" t="n">
         <v>81682814</v>
       </c>
-      <c r="C28" s="10" t="n">
+      <c r="C28" s="9" t="n">
         <v>596605140</v>
       </c>
     </row>
@@ -20742,7 +20742,7 @@
       <c r="B29" s="8" t="n">
         <v>82292433</v>
       </c>
-      <c r="C29" s="10" t="n">
+      <c r="C29" s="9" t="n">
         <v>589556446</v>
       </c>
     </row>
@@ -20753,7 +20753,7 @@
       <c r="B30" s="8" t="n">
         <v>81699600</v>
       </c>
-      <c r="C30" s="10" t="n">
+      <c r="C30" s="9" t="n">
         <v>632012049</v>
       </c>
     </row>
@@ -20764,7 +20764,7 @@
       <c r="B31" s="8" t="n">
         <v>81698058</v>
       </c>
-      <c r="C31" s="10" t="n">
+      <c r="C31" s="9" t="n">
         <v>556288257</v>
       </c>
     </row>
@@ -20775,7 +20775,7 @@
       <c r="B32" s="8" t="n">
         <v>81389270</v>
       </c>
-      <c r="C32" s="10" t="n">
+      <c r="C32" s="9" t="n">
         <v>639275393</v>
       </c>
     </row>
@@ -20786,7 +20786,7 @@
       <c r="B33" s="8" t="n">
         <v>81405851</v>
       </c>
-      <c r="C33" s="10" t="n">
+      <c r="C33" s="9" t="n">
         <v>803191351</v>
       </c>
     </row>
@@ -20797,7 +20797,7 @@
       <c r="B34" s="8" t="n">
         <v>82296064</v>
       </c>
-      <c r="C34" s="10" t="n">
+      <c r="C34" s="9" t="n">
         <v>612324367</v>
       </c>
     </row>
@@ -20808,7 +20808,7 @@
       <c r="B35" s="8" t="n">
         <v>82287728</v>
       </c>
-      <c r="C35" s="10" t="n">
+      <c r="C35" s="9" t="n">
         <v>766398717</v>
       </c>
     </row>
@@ -20819,7 +20819,7 @@
       <c r="B36" s="8" t="n">
         <v>81379534</v>
       </c>
-      <c r="C36" s="10" t="n">
+      <c r="C36" s="9" t="n">
         <v>613764095</v>
       </c>
     </row>
@@ -20830,7 +20830,7 @@
       <c r="B37" s="8" t="n">
         <v>82593135</v>
       </c>
-      <c r="C37" s="10" t="n">
+      <c r="C37" s="9" t="n">
         <v>661443671</v>
       </c>
     </row>
@@ -20841,7 +20841,7 @@
       <c r="B38" s="8" t="n">
         <v>81698096</v>
       </c>
-      <c r="C38" s="10" t="n">
+      <c r="C38" s="9" t="n">
         <v>589596394</v>
       </c>
     </row>
@@ -20852,7 +20852,7 @@
       <c r="B39" s="8" t="n">
         <v>81983304</v>
       </c>
-      <c r="C39" s="10" t="n">
+      <c r="C39" s="9" t="n">
         <v>609820455</v>
       </c>
     </row>
@@ -20863,7 +20863,7 @@
       <c r="B40" s="8" t="n">
         <v>81997362</v>
       </c>
-      <c r="C40" s="10" t="n">
+      <c r="C40" s="9" t="n">
         <v>609660712</v>
       </c>
     </row>
@@ -20874,7 +20874,7 @@
       <c r="B41" s="8" t="n">
         <v>81393650</v>
       </c>
-      <c r="C41" s="10" t="n">
+      <c r="C41" s="9" t="n">
         <v>601750729</v>
       </c>
     </row>
@@ -20885,7 +20885,7 @@
       <c r="B42" s="8" t="n">
         <v>81071314</v>
       </c>
-      <c r="C42" s="10" t="n">
+      <c r="C42" s="9" t="n">
         <v>748384539</v>
       </c>
     </row>
@@ -20896,7 +20896,7 @@
       <c r="B43" s="8" t="n">
         <v>82905275</v>
       </c>
-      <c r="C43" s="10" t="n">
+      <c r="C43" s="9" t="n">
         <v>669853633</v>
       </c>
     </row>
@@ -20907,7 +20907,7 @@
       <c r="B44" s="8" t="n">
         <v>82892486</v>
       </c>
-      <c r="C44" s="10" t="n">
+      <c r="C44" s="9" t="n">
         <v>881363303</v>
       </c>
     </row>
@@ -20918,7 +20918,7 @@
       <c r="B45" s="8" t="n">
         <v>81392598</v>
       </c>
-      <c r="C45" s="10" t="n">
+      <c r="C45" s="9" t="n">
         <v>616652515</v>
       </c>
     </row>
@@ -20929,7 +20929,7 @@
       <c r="B46" s="8" t="n">
         <v>80780600</v>
       </c>
-      <c r="C46" s="10" t="n">
+      <c r="C46" s="9" t="n">
         <v>721462100</v>
       </c>
     </row>
@@ -20982,7 +20982,7 @@
       <c r="B4" s="8" t="n">
         <v>22260418</v>
       </c>
-      <c r="C4" s="16" t="n">
+      <c r="C4" s="15" t="n">
         <v>199126653</v>
       </c>
     </row>
@@ -20993,7 +20993,7 @@
       <c r="B5" s="8" t="n">
         <v>20049103</v>
       </c>
-      <c r="C5" s="16" t="n">
+      <c r="C5" s="15" t="n">
         <v>199288073</v>
       </c>
     </row>
@@ -21004,7 +21004,7 @@
       <c r="B6" s="8" t="n">
         <v>19608500</v>
       </c>
-      <c r="C6" s="16" t="n">
+      <c r="C6" s="15" t="n">
         <v>199371413</v>
       </c>
     </row>
@@ -21015,7 +21015,7 @@
       <c r="B7" s="8" t="n">
         <v>20694080</v>
       </c>
-      <c r="C7" s="16" t="n">
+      <c r="C7" s="15" t="n">
         <v>201130293</v>
       </c>
     </row>
@@ -21026,7 +21026,7 @@
       <c r="B8" s="8" t="n">
         <v>20047045</v>
       </c>
-      <c r="C8" s="16" t="n">
+      <c r="C8" s="15" t="n">
         <v>201047791</v>
       </c>
     </row>
@@ -21037,7 +21037,7 @@
       <c r="B9" s="8" t="n">
         <v>19827687</v>
       </c>
-      <c r="C9" s="16" t="n">
+      <c r="C9" s="15" t="n">
         <v>198959637</v>
       </c>
     </row>
@@ -21048,7 +21048,7 @@
       <c r="B10" s="8" t="n">
         <v>22210445</v>
       </c>
-      <c r="C10" s="16" t="n">
+      <c r="C10" s="15" t="n">
         <v>199876056</v>
       </c>
     </row>
@@ -21059,7 +21059,7 @@
       <c r="B11" s="8" t="n">
         <v>22290963</v>
       </c>
-      <c r="C11" s="16" t="n">
+      <c r="C11" s="15" t="n">
         <v>201050169</v>
       </c>
     </row>
@@ -21070,7 +21070,7 @@
       <c r="B12" s="8" t="n">
         <v>20451094</v>
       </c>
-      <c r="C12" s="16" t="n">
+      <c r="C12" s="15" t="n">
         <v>200614168</v>
       </c>
     </row>
@@ -21081,7 +21081,7 @@
       <c r="B13" s="8" t="n">
         <v>20989720</v>
       </c>
-      <c r="C13" s="16" t="n">
+      <c r="C13" s="15" t="n">
         <v>199486549</v>
       </c>
     </row>
@@ -21092,7 +21092,7 @@
       <c r="B14" s="8" t="n">
         <v>5308717</v>
       </c>
-      <c r="C14" s="16" t="n">
+      <c r="C14" s="15" t="n">
         <v>199102932</v>
       </c>
     </row>
@@ -21103,7 +21103,7 @@
       <c r="B15" s="8" t="n">
         <v>3047232</v>
       </c>
-      <c r="C15" s="16" t="n">
+      <c r="C15" s="15" t="n">
         <v>199324786</v>
       </c>
     </row>
@@ -21114,7 +21114,7 @@
       <c r="B16" s="8" t="n">
         <v>5441675</v>
       </c>
-      <c r="C16" s="16" t="n">
+      <c r="C16" s="15" t="n">
         <v>199321246</v>
       </c>
     </row>
@@ -21125,7 +21125,7 @@
       <c r="B17" s="8" t="n">
         <v>4407165</v>
       </c>
-      <c r="C17" s="16" t="n">
+      <c r="C17" s="15" t="n">
         <v>201175722</v>
       </c>
     </row>
@@ -21136,7 +21136,7 @@
       <c r="B18" s="8" t="n">
         <v>4775800</v>
       </c>
-      <c r="C18" s="16" t="n">
+      <c r="C18" s="15" t="n">
         <v>201066857</v>
       </c>
     </row>
@@ -21147,7 +21147,7 @@
       <c r="B19" s="8" t="n">
         <v>342998</v>
       </c>
-      <c r="C19" s="16" t="n">
+      <c r="C19" s="15" t="n">
         <v>199090559</v>
       </c>
     </row>
@@ -21158,7 +21158,7 @@
       <c r="B20" s="8" t="n">
         <v>224706</v>
       </c>
-      <c r="C20" s="16" t="n">
+      <c r="C20" s="15" t="n">
         <v>199292376</v>
       </c>
     </row>
@@ -21169,7 +21169,7 @@
       <c r="B21" s="8" t="n">
         <v>43650</v>
       </c>
-      <c r="C21" s="16" t="n">
+      <c r="C21" s="15" t="n">
         <v>199351204</v>
       </c>
     </row>
@@ -21180,7 +21180,7 @@
       <c r="B22" s="8" t="n">
         <v>441162</v>
       </c>
-      <c r="C22" s="16" t="n">
+      <c r="C22" s="15" t="n">
         <v>201184186</v>
       </c>
     </row>
@@ -21191,7 +21191,7 @@
       <c r="B23" s="8" t="n">
         <v>177879</v>
       </c>
-      <c r="C23" s="16" t="n">
+      <c r="C23" s="15" t="n">
         <v>201123383</v>
       </c>
     </row>
@@ -21213,7 +21213,7 @@
       <c r="B27" s="8" t="n">
         <v>13804237</v>
       </c>
-      <c r="C27" s="14" t="n">
+      <c r="C27" s="13" t="n">
         <v>117638487</v>
       </c>
     </row>
@@ -21224,7 +21224,7 @@
       <c r="B28" s="8" t="n">
         <v>13861370</v>
       </c>
-      <c r="C28" s="16" t="n">
+      <c r="C28" s="15" t="n">
         <v>132840790</v>
       </c>
     </row>
@@ -21235,7 +21235,7 @@
       <c r="B29" s="8" t="n">
         <v>13797761</v>
       </c>
-      <c r="C29" s="16" t="n">
+      <c r="C29" s="15" t="n">
         <v>119838342</v>
       </c>
     </row>
@@ -21246,7 +21246,7 @@
       <c r="B30" s="8" t="n">
         <v>13808397</v>
       </c>
-      <c r="C30" s="16" t="n">
+      <c r="C30" s="15" t="n">
         <v>150513176</v>
       </c>
     </row>
@@ -21257,7 +21257,7 @@
       <c r="B31" s="8" t="n">
         <v>13744302</v>
       </c>
-      <c r="C31" s="16" t="n">
+      <c r="C31" s="15" t="n">
         <v>115966768</v>
       </c>
     </row>
@@ -21268,7 +21268,7 @@
       <c r="B32" s="8" t="n">
         <v>13912169</v>
       </c>
-      <c r="C32" s="16" t="n">
+      <c r="C32" s="15" t="n">
         <v>433191195</v>
       </c>
     </row>
@@ -21279,7 +21279,7 @@
       <c r="B33" s="8" t="n">
         <v>13742022</v>
       </c>
-      <c r="C33" s="16" t="n">
+      <c r="C33" s="15" t="n">
         <v>160335384</v>
       </c>
     </row>
@@ -21290,7 +21290,7 @@
       <c r="B34" s="8" t="n">
         <v>13796112</v>
       </c>
-      <c r="C34" s="16" t="n">
+      <c r="C34" s="15" t="n">
         <v>108301120</v>
       </c>
     </row>
@@ -21301,7 +21301,7 @@
       <c r="B35" s="8" t="n">
         <v>13857526</v>
       </c>
-      <c r="C35" s="16" t="n">
+      <c r="C35" s="15" t="n">
         <v>175086630</v>
       </c>
     </row>
@@ -21312,7 +21312,7 @@
       <c r="B36" s="8" t="n">
         <v>13798650</v>
       </c>
-      <c r="C36" s="16" t="n">
+      <c r="C36" s="15" t="n">
         <v>105033635</v>
       </c>
     </row>
@@ -21323,7 +21323,7 @@
       <c r="B37" s="8" t="n">
         <v>13812212</v>
       </c>
-      <c r="C37" s="16" t="n">
+      <c r="C37" s="15" t="n">
         <v>931231263</v>
       </c>
     </row>
@@ -21334,7 +21334,7 @@
       <c r="B38" s="8" t="n">
         <v>13800638</v>
       </c>
-      <c r="C38" s="16" t="n">
+      <c r="C38" s="15" t="n">
         <v>157665218</v>
       </c>
     </row>
@@ -21345,7 +21345,7 @@
       <c r="B39" s="8" t="n">
         <v>13860271</v>
       </c>
-      <c r="C39" s="16" t="n">
+      <c r="C39" s="15" t="n">
         <v>120801641</v>
       </c>
     </row>
@@ -21356,7 +21356,7 @@
       <c r="B40" s="8" t="n">
         <v>13801620</v>
       </c>
-      <c r="C40" s="16" t="n">
+      <c r="C40" s="15" t="n">
         <v>256547769</v>
       </c>
     </row>
@@ -21367,7 +21367,7 @@
       <c r="B41" s="8" t="n">
         <v>13867859</v>
       </c>
-      <c r="C41" s="16" t="n">
+      <c r="C41" s="15" t="n">
         <v>130335158</v>
       </c>
     </row>
@@ -21378,7 +21378,7 @@
       <c r="B42" s="8" t="n">
         <v>13855957</v>
       </c>
-      <c r="C42" s="16" t="n">
+      <c r="C42" s="15" t="n">
         <v>148617661</v>
       </c>
     </row>
@@ -21389,7 +21389,7 @@
       <c r="B43" s="8" t="n">
         <v>13813977</v>
       </c>
-      <c r="C43" s="16" t="n">
+      <c r="C43" s="15" t="n">
         <v>339858259</v>
       </c>
     </row>
@@ -21400,7 +21400,7 @@
       <c r="B44" s="8" t="n">
         <v>13871943</v>
       </c>
-      <c r="C44" s="16" t="n">
+      <c r="C44" s="15" t="n">
         <v>170647805</v>
       </c>
     </row>
@@ -21411,7 +21411,7 @@
       <c r="B45" s="8" t="n">
         <v>13861198</v>
       </c>
-      <c r="C45" s="16" t="n">
+      <c r="C45" s="15" t="n">
         <v>118565721</v>
       </c>
     </row>
@@ -21422,7 +21422,7 @@
       <c r="B46" s="8" t="n">
         <v>13865520</v>
       </c>
-      <c r="C46" s="16" t="n">
+      <c r="C46" s="15" t="n">
         <v>182291801</v>
       </c>
     </row>

--- a/exp_result/figure.xlsx
+++ b/exp_result/figure.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="2" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="540" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
+    <workbookView activeTab="4" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="540" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
     <sheet name="count-d2D" sheetId="1" state="visible" r:id="rId2"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="50">
   <si>
     <t>Total running time</t>
   </si>
@@ -144,6 +144,12 @@
   </si>
   <si>
     <t>176,151,49</t>
+  </si>
+  <si>
+    <t>mrcube</t>
+  </si>
+  <si>
+    <t>tscube</t>
   </si>
   <si>
     <t>d2F</t>
@@ -489,7 +495,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart52.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart144.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
@@ -2356,11 +2362,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="20020815"/>
-        <c:axId val="44783270"/>
+        <c:axId val="16658800"/>
+        <c:axId val="4274030"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="20020815"/>
+        <c:axId val="16658800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2394,14 +2400,14 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="44783270"/>
+        <c:crossAx val="4274030"/>
         <c:crossesAt val="0"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="44783270"/>
+        <c:axId val="4274030"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2444,7 +2450,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="20020815"/>
+        <c:crossAx val="16658800"/>
         <c:crossesAt val="0"/>
       </c:valAx>
       <c:spPr>
@@ -2479,7 +2485,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart53.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart145.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
@@ -3066,11 +3072,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="21860236"/>
-        <c:axId val="4034044"/>
+        <c:axId val="97951489"/>
+        <c:axId val="58206395"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="21860236"/>
+        <c:axId val="97951489"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3104,14 +3110,14 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="4034044"/>
+        <c:crossAx val="58206395"/>
         <c:crossesAt val="0"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="4034044"/>
+        <c:axId val="58206395"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3154,7 +3160,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="21860236"/>
+        <c:crossAx val="97951489"/>
         <c:crossesAt val="0"/>
       </c:valAx>
       <c:spPr>
@@ -3189,7 +3195,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart54.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart146.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
@@ -3776,11 +3782,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="9391438"/>
-        <c:axId val="54332416"/>
+        <c:axId val="70616466"/>
+        <c:axId val="24721867"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="9391438"/>
+        <c:axId val="70616466"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3814,14 +3820,14 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="54332416"/>
+        <c:crossAx val="24721867"/>
         <c:crossesAt val="0"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="54332416"/>
+        <c:axId val="24721867"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3864,7 +3870,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="9391438"/>
+        <c:crossAx val="70616466"/>
         <c:crossesAt val="0"/>
       </c:valAx>
       <c:spPr>
@@ -3899,7 +3905,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart55.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart147.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
@@ -5766,11 +5772,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="8683309"/>
-        <c:axId val="85369443"/>
+        <c:axId val="93449366"/>
+        <c:axId val="28640491"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="8683309"/>
+        <c:axId val="93449366"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5804,14 +5810,14 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="85369443"/>
+        <c:crossAx val="28640491"/>
         <c:crossesAt val="0"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="85369443"/>
+        <c:axId val="28640491"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5854,7 +5860,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="8683309"/>
+        <c:crossAx val="93449366"/>
         <c:crossesAt val="0"/>
       </c:valAx>
       <c:spPr>
@@ -5889,7 +5895,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart56.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart148.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
@@ -6476,11 +6482,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="63621707"/>
-        <c:axId val="14924172"/>
+        <c:axId val="67916894"/>
+        <c:axId val="1261654"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="63621707"/>
+        <c:axId val="67916894"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6514,14 +6520,14 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="14924172"/>
+        <c:crossAx val="1261654"/>
         <c:crossesAt val="0"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="14924172"/>
+        <c:axId val="1261654"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6564,7 +6570,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="63621707"/>
+        <c:crossAx val="67916894"/>
         <c:crossesAt val="0"/>
       </c:valAx>
       <c:spPr>
@@ -6599,7 +6605,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart57.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart149.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
@@ -8466,11 +8472,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="24300742"/>
-        <c:axId val="90830170"/>
+        <c:axId val="7344484"/>
+        <c:axId val="8135945"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="24300742"/>
+        <c:axId val="7344484"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8504,14 +8510,14 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="90830170"/>
+        <c:crossAx val="8135945"/>
         <c:crossesAt val="0"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="90830170"/>
+        <c:axId val="8135945"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8554,7 +8560,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="24300742"/>
+        <c:crossAx val="7344484"/>
         <c:crossesAt val="0"/>
       </c:valAx>
       <c:spPr>
@@ -8589,7 +8595,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart58.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart150.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
@@ -8809,11 +8815,11 @@
           </c:val>
         </c:ser>
         <c:gapWidth val="100"/>
-        <c:axId val="91755003"/>
-        <c:axId val="92598381"/>
+        <c:axId val="15115728"/>
+        <c:axId val="63620109"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="91755003"/>
+        <c:axId val="15115728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8847,14 +8853,14 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="92598381"/>
+        <c:crossAx val="63620109"/>
         <c:crossesAt val="0"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="92598381"/>
+        <c:axId val="63620109"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8897,7 +8903,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="91755003"/>
+        <c:crossAx val="15115728"/>
         <c:crossesAt val="0"/>
       </c:valAx>
       <c:spPr>
@@ -8932,7 +8938,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart59.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart151.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
@@ -9008,16 +9014,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>721600</c:v>
+                  <c:v>4063075</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3471040</c:v>
+                  <c:v>24770552</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>32480086</c:v>
+                  <c:v>138347611</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>334079246</c:v>
+                  <c:v>997494646</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9072,27 +9078,27 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>725967</c:v>
+                  <c:v>4388020</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3478357</c:v>
+                  <c:v>25691396</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>21889361</c:v>
+                  <c:v>140536753</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>167884740</c:v>
+                  <c:v>1000095863</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:gapWidth val="100"/>
-        <c:axId val="20300086"/>
-        <c:axId val="81794849"/>
+        <c:axId val="93905824"/>
+        <c:axId val="75344926"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="20300086"/>
+        <c:axId val="93905824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9126,14 +9132,14 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="81794849"/>
+        <c:crossAx val="75344926"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="81794849"/>
+        <c:axId val="75344926"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9176,7 +9182,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="20300086"/>
+        <c:crossAx val="93905824"/>
         <c:crosses val="autoZero"/>
       </c:valAx>
       <c:spPr>
@@ -9211,7 +9217,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart60.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart152.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
@@ -9798,11 +9804,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="29602345"/>
-        <c:axId val="46379403"/>
+        <c:axId val="39116493"/>
+        <c:axId val="80198742"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="29602345"/>
+        <c:axId val="39116493"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9836,14 +9842,14 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="46379403"/>
+        <c:crossAx val="80198742"/>
         <c:crossesAt val="0"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="46379403"/>
+        <c:axId val="80198742"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9886,7 +9892,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="29602345"/>
+        <c:crossAx val="39116493"/>
         <c:crossesAt val="0"/>
       </c:valAx>
       <c:spPr>
@@ -9921,7 +9927,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart61.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart153.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
@@ -11788,11 +11794,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="68802711"/>
-        <c:axId val="46377875"/>
+        <c:axId val="53399848"/>
+        <c:axId val="78747820"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="68802711"/>
+        <c:axId val="53399848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11826,14 +11832,14 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="46377875"/>
+        <c:crossAx val="78747820"/>
         <c:crossesAt val="0"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="46377875"/>
+        <c:axId val="78747820"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11876,7 +11882,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="68802711"/>
+        <c:crossAx val="53399848"/>
         <c:crossesAt val="0"/>
       </c:valAx>
       <c:spPr>
@@ -11911,7 +11917,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart62.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart154.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
@@ -12131,11 +12137,11 @@
           </c:val>
         </c:ser>
         <c:gapWidth val="100"/>
-        <c:axId val="29875017"/>
-        <c:axId val="63666498"/>
+        <c:axId val="48180361"/>
+        <c:axId val="68173488"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="29875017"/>
+        <c:axId val="48180361"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12169,14 +12175,14 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="63666498"/>
+        <c:crossAx val="68173488"/>
         <c:crossesAt val="0"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="63666498"/>
+        <c:axId val="68173488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12219,7 +12225,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="29875017"/>
+        <c:crossAx val="48180361"/>
         <c:crossesAt val="0"/>
       </c:valAx>
       <c:spPr>
@@ -12254,7 +12260,286 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart63.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart155.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr sz="1300"/>
+              <a:t>中间数据</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'distinct-d2E'!$B$57</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>mrcube</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:cat>
+            <c:strRef>
+              <c:f>'distinct-d2E'!$A$58:$A$61</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>10^6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10^7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10^8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10^9</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'distinct-d2E'!$B$58:$B$61</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>721600</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3471040</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>32480086</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>334079246</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'distinct-d2E'!$C$57</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>tscube</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ff420e"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:cat>
+            <c:strRef>
+              <c:f>'distinct-d2E'!$A$58:$A$61</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>10^6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10^7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10^8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10^9</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'distinct-d2E'!$C$58:$C$61</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>725967</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3478357</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>21889361</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>167884740</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:gapWidth val="100"/>
+        <c:axId val="31881944"/>
+        <c:axId val="69080292"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="31881944"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr sz="900"/>
+                  <a:t>DataSet Size</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:crossAx val="69080292"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="69080292"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr sz="900"/>
+                  <a:t>MR2 reduce output</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:crossAx val="31881944"/>
+        <c:crosses val="autoZero"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart156.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
@@ -12841,11 +13126,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="13355557"/>
-        <c:axId val="20669835"/>
+        <c:axId val="13797954"/>
+        <c:axId val="67075263"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="13355557"/>
+        <c:axId val="13797954"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12879,14 +13164,14 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="20669835"/>
+        <c:crossAx val="67075263"/>
         <c:crossesAt val="0"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="20669835"/>
+        <c:axId val="67075263"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12929,7 +13214,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="13355557"/>
+        <c:crossAx val="13797954"/>
         <c:crossesAt val="0"/>
       </c:valAx>
       <c:spPr>
@@ -12964,7 +13249,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart64.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart157.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
@@ -13184,11 +13469,11 @@
           </c:val>
         </c:ser>
         <c:gapWidth val="100"/>
-        <c:axId val="73330993"/>
-        <c:axId val="49274349"/>
+        <c:axId val="62916920"/>
+        <c:axId val="88303558"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="73330993"/>
+        <c:axId val="62916920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13222,14 +13507,14 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="49274349"/>
+        <c:crossAx val="88303558"/>
         <c:crossesAt val="0"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="49274349"/>
+        <c:axId val="88303558"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13272,7 +13557,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="73330993"/>
+        <c:crossAx val="62916920"/>
         <c:crossesAt val="0"/>
       </c:valAx>
       <c:spPr>
@@ -13307,7 +13592,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart65.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart158.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
@@ -15174,11 +15459,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="33688973"/>
-        <c:axId val="35174049"/>
+        <c:axId val="73431484"/>
+        <c:axId val="28524322"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="33688973"/>
+        <c:axId val="73431484"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15212,14 +15497,14 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="35174049"/>
+        <c:crossAx val="28524322"/>
         <c:crossesAt val="0"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="35174049"/>
+        <c:axId val="28524322"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15262,7 +15547,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="33688973"/>
+        <c:crossAx val="73431484"/>
         <c:crossesAt val="0"/>
       </c:valAx>
       <c:spPr>
@@ -15297,7 +15582,286 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart66.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart159.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr sz="1300"/>
+              <a:t>中间数据</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'distinct-d2F'!$B$56</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>mrcube</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:cat>
+            <c:strRef>
+              <c:f>'distinct-d2F'!$A$57:$A$60</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>10^6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10^7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10^8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10^9</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'distinct-d2F'!$B$57:$B$60</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>718171</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3474077</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>21647617</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>334058889</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'distinct-d2F'!$C$56</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>tscube</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ff420e"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:cat>
+            <c:strRef>
+              <c:f>'distinct-d2F'!$A$57:$A$60</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>10^6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10^7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10^8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10^9</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'distinct-d2F'!$C$57:$C$60</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>720942</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3486368</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>21773566</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>167879138</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:gapWidth val="100"/>
+        <c:axId val="38647444"/>
+        <c:axId val="90090284"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="38647444"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr sz="900"/>
+                  <a:t>Dataset Size</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:crossAx val="90090284"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="90090284"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr sz="900"/>
+                  <a:t>MR2 reduce output</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:crossAx val="38647444"/>
+        <c:crosses val="autoZero"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart160.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
@@ -15627,11 +16191,11 @@
           </c:val>
         </c:ser>
         <c:gapWidth val="100"/>
-        <c:axId val="74074689"/>
-        <c:axId val="51286734"/>
+        <c:axId val="85314704"/>
+        <c:axId val="89115286"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="74074689"/>
+        <c:axId val="85314704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15647,14 +16211,14 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="51286734"/>
+        <c:crossAx val="89115286"/>
         <c:crossesAt val="0"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="51286734"/>
+        <c:axId val="89115286"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15679,7 +16243,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="74074689"/>
+        <c:crossAx val="85314704"/>
         <c:crossesAt val="0"/>
       </c:valAx>
       <c:spPr>
@@ -15714,7 +16278,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart67.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart161.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
@@ -16044,11 +16608,11 @@
           </c:val>
         </c:ser>
         <c:gapWidth val="100"/>
-        <c:axId val="15661724"/>
-        <c:axId val="94095505"/>
+        <c:axId val="48296679"/>
+        <c:axId val="55931170"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="15661724"/>
+        <c:axId val="48296679"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -16064,14 +16628,14 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="94095505"/>
+        <c:crossAx val="55931170"/>
         <c:crossesAt val="0"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="94095505"/>
+        <c:axId val="55931170"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -16096,7 +16660,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="15661724"/>
+        <c:crossAx val="48296679"/>
         <c:crossesAt val="0"/>
       </c:valAx>
       <c:spPr>
@@ -16131,7 +16695,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart68.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart162.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
@@ -16461,11 +17025,11 @@
           </c:val>
         </c:ser>
         <c:gapWidth val="100"/>
-        <c:axId val="48586356"/>
-        <c:axId val="37521960"/>
+        <c:axId val="13837153"/>
+        <c:axId val="94262397"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="48586356"/>
+        <c:axId val="13837153"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -16481,14 +17045,14 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="37521960"/>
+        <c:crossAx val="94262397"/>
         <c:crossesAt val="0"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="37521960"/>
+        <c:axId val="94262397"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -16513,7 +17077,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="48586356"/>
+        <c:crossAx val="13837153"/>
         <c:crossesAt val="0"/>
       </c:valAx>
       <c:spPr>
@@ -16548,7 +17112,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart69.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart163.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
@@ -16878,11 +17442,11 @@
           </c:val>
         </c:ser>
         <c:gapWidth val="100"/>
-        <c:axId val="50645901"/>
-        <c:axId val="57977794"/>
+        <c:axId val="84571661"/>
+        <c:axId val="34270399"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="50645901"/>
+        <c:axId val="84571661"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -16898,14 +17462,14 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="57977794"/>
+        <c:crossAx val="34270399"/>
         <c:crossesAt val="0"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="57977794"/>
+        <c:axId val="34270399"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -16930,7 +17494,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="50645901"/>
+        <c:crossAx val="84571661"/>
         <c:crossesAt val="0"/>
       </c:valAx>
       <c:spPr>
@@ -17197,8 +17761,8 @@
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>392400</xdr:colOff>
-      <xdr:row>67</xdr:row>
-      <xdr:rowOff>264240</xdr:rowOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>73800</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -17312,6 +17876,36 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>110520</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>61920</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>550440</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>233280</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="11" name=""/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="4763160" y="17130600"/>
+        <a:ext cx="5759640" cy="3239640"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -17332,7 +17926,7 @@
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="11" name=""/>
+        <xdr:cNvPr id="12" name=""/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -17362,7 +17956,7 @@
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="12" name=""/>
+        <xdr:cNvPr id="13" name=""/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -17392,7 +17986,7 @@
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="13" name=""/>
+        <xdr:cNvPr id="14" name=""/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -17402,6 +17996,36 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1183680</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>115560</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>609480</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>180000</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="15" name=""/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="4520520" y="17077680"/>
+        <a:ext cx="5762880" cy="3239280"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -17427,7 +18051,7 @@
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="14" name=""/>
+        <xdr:cNvPr id="16" name=""/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -17457,7 +18081,7 @@
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="15" name=""/>
+        <xdr:cNvPr id="17" name=""/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -17492,7 +18116,7 @@
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="16" name=""/>
+        <xdr:cNvPr id="18" name=""/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -17522,7 +18146,7 @@
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="17" name=""/>
+        <xdr:cNvPr id="19" name=""/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -18839,10 +19463,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F60"/>
+  <dimension ref="A1:F65"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A49" view="normal" windowProtection="false" workbookViewId="0" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100">
-      <selection activeCell="K74" activeCellId="0" pane="topLeft" sqref="K74"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A46" view="normal" windowProtection="false" workbookViewId="0" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100">
+      <selection activeCell="M55" activeCellId="0" pane="topLeft" sqref="M55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="24"/>
@@ -19487,10 +20111,10 @@
         <v>7</v>
       </c>
       <c r="B57" s="4" t="n">
-        <v>721600</v>
+        <v>4063075</v>
       </c>
       <c r="C57" s="4" t="n">
-        <v>725967</v>
+        <v>4388020</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.5" outlineLevel="0" r="58">
@@ -19498,10 +20122,10 @@
         <v>8</v>
       </c>
       <c r="B58" s="4" t="n">
-        <v>3471040</v>
+        <v>24770552</v>
       </c>
       <c r="C58" s="4" t="n">
-        <v>3478357</v>
+        <v>25691396</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.5" outlineLevel="0" r="59">
@@ -19509,10 +20133,10 @@
         <v>9</v>
       </c>
       <c r="B59" s="4" t="n">
-        <v>32480086</v>
+        <v>138347611</v>
       </c>
       <c r="C59" s="4" t="n">
-        <v>21889361</v>
+        <v>140536753</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.5" outlineLevel="0" r="60">
@@ -19520,12 +20144,19 @@
         <v>10</v>
       </c>
       <c r="B60" s="4" t="n">
-        <v>334079246</v>
+        <v>997494646</v>
       </c>
       <c r="C60" s="4" t="n">
-        <v>167884740</v>
-      </c>
-    </row>
+        <v>1000095863</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.5" outlineLevel="0" r="65"/>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.5" outlineLevel="0" r="66"/>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.5" outlineLevel="0" r="67"/>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.5" outlineLevel="0" r="68"/>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.5" outlineLevel="0" r="69"/>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.5" outlineLevel="0" r="70"/>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.5" outlineLevel="0" r="71"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
@@ -19543,10 +20174,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F36"/>
+  <dimension ref="A1:F61"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100">
-      <selection activeCell="F12" activeCellId="0" pane="topLeft" sqref="F12"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A46" view="normal" windowProtection="false" workbookViewId="0" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100">
+      <selection activeCell="C65" activeCellId="0" pane="topLeft" sqref="C65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="24"/>
@@ -20172,6 +20803,59 @@
         <v>30337604</v>
       </c>
     </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.6" outlineLevel="0" r="57">
+      <c r="A57" s="4"/>
+      <c r="B57" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C57" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.5" outlineLevel="0" r="58">
+      <c r="A58" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B58" s="4" t="n">
+        <v>721600</v>
+      </c>
+      <c r="C58" s="4" t="n">
+        <v>725967</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.5" outlineLevel="0" r="59">
+      <c r="A59" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B59" s="4" t="n">
+        <v>3471040</v>
+      </c>
+      <c r="C59" s="4" t="n">
+        <v>3478357</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.5" outlineLevel="0" r="60">
+      <c r="A60" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B60" s="4" t="n">
+        <v>32480086</v>
+      </c>
+      <c r="C60" s="4" t="n">
+        <v>21889361</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.5" outlineLevel="0" r="61">
+      <c r="A61" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B61" s="4" t="n">
+        <v>334079246</v>
+      </c>
+      <c r="C61" s="4" t="n">
+        <v>167884740</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
@@ -20189,10 +20873,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F36"/>
+  <dimension ref="A1:F60"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100">
-      <selection activeCell="D13" activeCellId="0" pane="topLeft" sqref="D13"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A46" view="normal" windowProtection="false" workbookViewId="0" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100">
+      <selection activeCell="K54" activeCellId="0" pane="topLeft" sqref="K54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="24"/>
@@ -20214,7 +20898,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="24" outlineLevel="0" r="2">
       <c r="A2" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>2</v>
@@ -20322,7 +21006,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="24" outlineLevel="0" r="9">
       <c r="A9" s="3" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>12</v>
@@ -20400,7 +21084,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="24" outlineLevel="0" r="16">
       <c r="A16" s="7" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>2</v>
@@ -20816,6 +21500,59 @@
       </c>
       <c r="F36" s="14" t="n">
         <v>30339475</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.6" outlineLevel="0" r="56">
+      <c r="A56" s="4"/>
+      <c r="B56" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C56" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.5" outlineLevel="0" r="57">
+      <c r="A57" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B57" s="4" t="n">
+        <v>718171</v>
+      </c>
+      <c r="C57" s="4" t="n">
+        <v>720942</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.5" outlineLevel="0" r="58">
+      <c r="A58" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B58" s="4" t="n">
+        <v>3474077</v>
+      </c>
+      <c r="C58" s="4" t="n">
+        <v>3486368</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.5" outlineLevel="0" r="59">
+      <c r="A59" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B59" s="4" t="n">
+        <v>21647617</v>
+      </c>
+      <c r="C59" s="4" t="n">
+        <v>21773566</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.5" outlineLevel="0" r="60">
+      <c r="A60" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B60" s="4" t="n">
+        <v>334058889</v>
+      </c>
+      <c r="C60" s="4" t="n">
+        <v>167879138</v>
       </c>
     </row>
   </sheetData>
@@ -20852,13 +21589,13 @@
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.5" outlineLevel="0" r="1"/>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.5" outlineLevel="0" r="3">
       <c r="A3" s="4" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.9" outlineLevel="0" r="4">
@@ -21083,13 +21820,13 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.5" outlineLevel="0" r="26">
       <c r="A26" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B26" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="B26" s="4" t="s">
-        <v>43</v>
-      </c>
       <c r="C26" s="4" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.9" outlineLevel="0" r="27">
@@ -21345,13 +22082,13 @@
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.5" outlineLevel="0" r="3">
       <c r="A3" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>46</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>44</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.9" outlineLevel="0" r="4">
@@ -21576,13 +22313,13 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.5" outlineLevel="0" r="26">
       <c r="A26" s="4" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.9" outlineLevel="0" r="27">

--- a/exp_result/figure.xlsx
+++ b/exp_result/figure.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="4" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="540" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
+    <workbookView activeTab="2" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="540" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
     <sheet name="count-d2D" sheetId="1" state="visible" r:id="rId2"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="48">
   <si>
     <t>Total running time</t>
   </si>
@@ -137,19 +137,13 @@
     <t>mr2 output</t>
   </si>
   <si>
-    <t>mrcube_ba</t>
-  </si>
-  <si>
-    <t>tscube_ba</t>
-  </si>
-  <si>
-    <t>176,151,49</t>
-  </si>
-  <si>
     <t>mrcube</t>
   </si>
   <si>
     <t>tscube</t>
+  </si>
+  <si>
+    <t>176,151,49</t>
   </si>
   <si>
     <t>d2F</t>
@@ -181,7 +175,7 @@
     <numFmt formatCode="GENERAL" numFmtId="164"/>
     <numFmt formatCode="#,##0" numFmtId="165"/>
   </numFmts>
-  <fonts count="15">
+  <fonts count="17">
     <font>
       <sz val="12"/>
       <name val="Arial"/>
@@ -248,6 +242,11 @@
     </font>
     <font>
       <sz val="13"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="13"/>
       <name val="DejaVu Sans"/>
       <family val="2"/>
     </font>
@@ -267,6 +266,11 @@
       <name val="FreeSerif"/>
       <family val="2"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="DejaVu Sans"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -399,19 +403,19 @@
       <alignment horizontal="left" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="false"/>
       <protection hidden="false" locked="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="2" fillId="0" fontId="13" numFmtId="165" xfId="0">
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="2" fillId="0" fontId="14" numFmtId="165" xfId="0">
       <alignment horizontal="left" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="2" fillId="0" fontId="15" numFmtId="165" xfId="0">
+      <alignment horizontal="left" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="false"/>
       <protection hidden="false" locked="true"/>
     </xf>
     <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="2" fillId="0" fontId="14" numFmtId="165" xfId="0">
       <alignment horizontal="left" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="false"/>
       <protection hidden="false" locked="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="2" fillId="0" fontId="13" numFmtId="165" xfId="0">
-      <alignment horizontal="left" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="2" fillId="0" fontId="13" numFmtId="164" xfId="0">
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="2" fillId="0" fontId="14" numFmtId="164" xfId="0">
       <alignment horizontal="left" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="false"/>
       <protection hidden="false" locked="true"/>
     </xf>
@@ -495,7 +499,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart144.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart164.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
@@ -2362,11 +2366,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="16658800"/>
-        <c:axId val="4274030"/>
+        <c:axId val="72225919"/>
+        <c:axId val="64490105"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="16658800"/>
+        <c:axId val="72225919"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2400,14 +2404,14 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="4274030"/>
+        <c:crossAx val="64490105"/>
         <c:crossesAt val="0"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="4274030"/>
+        <c:axId val="64490105"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2450,7 +2454,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="16658800"/>
+        <c:crossAx val="72225919"/>
         <c:crossesAt val="0"/>
       </c:valAx>
       <c:spPr>
@@ -2485,7 +2489,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart145.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart165.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
@@ -3072,11 +3076,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="97951489"/>
-        <c:axId val="58206395"/>
+        <c:axId val="65598842"/>
+        <c:axId val="19238340"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="97951489"/>
+        <c:axId val="65598842"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3110,14 +3114,14 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="58206395"/>
+        <c:crossAx val="19238340"/>
         <c:crossesAt val="0"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="58206395"/>
+        <c:axId val="19238340"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3160,7 +3164,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="97951489"/>
+        <c:crossAx val="65598842"/>
         <c:crossesAt val="0"/>
       </c:valAx>
       <c:spPr>
@@ -3195,7 +3199,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart146.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart166.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
@@ -3782,11 +3786,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="70616466"/>
-        <c:axId val="24721867"/>
+        <c:axId val="18541544"/>
+        <c:axId val="4864270"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="70616466"/>
+        <c:axId val="18541544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3820,14 +3824,14 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="24721867"/>
+        <c:crossAx val="4864270"/>
         <c:crossesAt val="0"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="24721867"/>
+        <c:axId val="4864270"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3870,7 +3874,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="70616466"/>
+        <c:crossAx val="18541544"/>
         <c:crossesAt val="0"/>
       </c:valAx>
       <c:spPr>
@@ -3905,7 +3909,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart147.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart167.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
@@ -5772,11 +5776,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="93449366"/>
-        <c:axId val="28640491"/>
+        <c:axId val="13923654"/>
+        <c:axId val="6477308"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="93449366"/>
+        <c:axId val="13923654"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5810,14 +5814,14 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="28640491"/>
+        <c:crossAx val="6477308"/>
         <c:crossesAt val="0"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="28640491"/>
+        <c:axId val="6477308"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5860,7 +5864,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="93449366"/>
+        <c:crossAx val="13923654"/>
         <c:crossesAt val="0"/>
       </c:valAx>
       <c:spPr>
@@ -5895,7 +5899,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart148.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart168.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
@@ -6482,11 +6486,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="67916894"/>
-        <c:axId val="1261654"/>
+        <c:axId val="1101230"/>
+        <c:axId val="12244736"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="67916894"/>
+        <c:axId val="1101230"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6520,14 +6524,14 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="1261654"/>
+        <c:crossAx val="12244736"/>
         <c:crossesAt val="0"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1261654"/>
+        <c:axId val="12244736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6570,7 +6574,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="67916894"/>
+        <c:crossAx val="1101230"/>
         <c:crossesAt val="0"/>
       </c:valAx>
       <c:spPr>
@@ -6605,7 +6609,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart149.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart169.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
@@ -8472,11 +8476,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="7344484"/>
-        <c:axId val="8135945"/>
+        <c:axId val="19659213"/>
+        <c:axId val="2048436"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="7344484"/>
+        <c:axId val="19659213"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8510,14 +8514,14 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="8135945"/>
+        <c:crossAx val="2048436"/>
         <c:crossesAt val="0"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="8135945"/>
+        <c:axId val="2048436"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8560,7 +8564,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="7344484"/>
+        <c:crossAx val="19659213"/>
         <c:crossesAt val="0"/>
       </c:valAx>
       <c:spPr>
@@ -8595,7 +8599,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart150.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart170.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
@@ -8815,11 +8819,11 @@
           </c:val>
         </c:ser>
         <c:gapWidth val="100"/>
-        <c:axId val="15115728"/>
-        <c:axId val="63620109"/>
+        <c:axId val="864693"/>
+        <c:axId val="64490822"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="15115728"/>
+        <c:axId val="864693"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8853,14 +8857,14 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="63620109"/>
+        <c:crossAx val="64490822"/>
         <c:crossesAt val="0"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="63620109"/>
+        <c:axId val="64490822"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8903,7 +8907,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="15115728"/>
+        <c:crossAx val="864693"/>
         <c:crossesAt val="0"/>
       </c:valAx>
       <c:spPr>
@@ -8938,7 +8942,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart151.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart171.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
@@ -8953,7 +8957,7 @@
             </a:pPr>
             <a:r>
               <a:rPr sz="1300"/>
-              <a:t>合并数据量</a:t>
+              <a:t>D1 - 合并数据量</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -8974,7 +8978,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>mrcube_ba</c:v>
+                  <c:v>mrcube</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -9038,7 +9042,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>tscube_ba</c:v>
+                  <c:v>tscube</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -9094,11 +9098,11 @@
           </c:val>
         </c:ser>
         <c:gapWidth val="100"/>
-        <c:axId val="93905824"/>
-        <c:axId val="75344926"/>
+        <c:axId val="93794441"/>
+        <c:axId val="2186639"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="93905824"/>
+        <c:axId val="93794441"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9132,14 +9136,14 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="75344926"/>
+        <c:crossAx val="2186639"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="75344926"/>
+        <c:axId val="2186639"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9165,7 +9169,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr sz="900"/>
-                  <a:t>MR2 Reduce Output Records</a:t>
+                  <a:t>MR2 Reduce Output</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -9182,7 +9186,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="93905824"/>
+        <c:crossAx val="93794441"/>
         <c:crosses val="autoZero"/>
       </c:valAx>
       <c:spPr>
@@ -9217,7 +9221,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart152.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart172.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
@@ -9804,11 +9808,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="39116493"/>
-        <c:axId val="80198742"/>
+        <c:axId val="85876735"/>
+        <c:axId val="46414088"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="39116493"/>
+        <c:axId val="85876735"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9842,14 +9846,14 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="80198742"/>
+        <c:crossAx val="46414088"/>
         <c:crossesAt val="0"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="80198742"/>
+        <c:axId val="46414088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9874,8 +9878,8 @@
                   <a:defRPr/>
                 </a:pPr>
                 <a:r>
-                  <a:rPr b="1" sz="900"/>
-                  <a:t>Running Time (Minutes)</a:t>
+                  <a:rPr sz="900"/>
+                  <a:t>D2A - DISTINCT 运行时间</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -9892,7 +9896,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="39116493"/>
+        <c:crossAx val="85876735"/>
         <c:crossesAt val="0"/>
       </c:valAx>
       <c:spPr>
@@ -9927,7 +9931,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart153.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart173.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
@@ -11794,11 +11798,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="53399848"/>
-        <c:axId val="78747820"/>
+        <c:axId val="58098276"/>
+        <c:axId val="72597807"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="53399848"/>
+        <c:axId val="58098276"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11832,14 +11836,14 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="78747820"/>
+        <c:crossAx val="72597807"/>
         <c:crossesAt val="0"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="78747820"/>
+        <c:axId val="72597807"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11882,7 +11886,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="53399848"/>
+        <c:crossAx val="58098276"/>
         <c:crossesAt val="0"/>
       </c:valAx>
       <c:spPr>
@@ -11917,7 +11921,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart154.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart174.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
@@ -12137,11 +12141,11 @@
           </c:val>
         </c:ser>
         <c:gapWidth val="100"/>
-        <c:axId val="48180361"/>
-        <c:axId val="68173488"/>
+        <c:axId val="59362962"/>
+        <c:axId val="37349859"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="48180361"/>
+        <c:axId val="59362962"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12175,14 +12179,14 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="68173488"/>
+        <c:crossAx val="37349859"/>
         <c:crossesAt val="0"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="68173488"/>
+        <c:axId val="37349859"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12225,7 +12229,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="48180361"/>
+        <c:crossAx val="59362962"/>
         <c:crossesAt val="0"/>
       </c:valAx>
       <c:spPr>
@@ -12260,7 +12264,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart155.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart175.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
@@ -12275,7 +12279,7 @@
             </a:pPr>
             <a:r>
               <a:rPr sz="1300"/>
-              <a:t>中间数据</a:t>
+              <a:t>D2A - 合并数据量</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -12416,11 +12420,11 @@
           </c:val>
         </c:ser>
         <c:gapWidth val="100"/>
-        <c:axId val="31881944"/>
-        <c:axId val="69080292"/>
+        <c:axId val="41030005"/>
+        <c:axId val="66976482"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="31881944"/>
+        <c:axId val="41030005"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12454,14 +12458,14 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="69080292"/>
+        <c:crossAx val="66976482"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="69080292"/>
+        <c:axId val="66976482"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12504,7 +12508,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="31881944"/>
+        <c:crossAx val="41030005"/>
         <c:crosses val="autoZero"/>
       </c:valAx>
       <c:spPr>
@@ -12539,7 +12543,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart156.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart176.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
@@ -13126,11 +13130,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="13797954"/>
-        <c:axId val="67075263"/>
+        <c:axId val="26383726"/>
+        <c:axId val="70940971"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="13797954"/>
+        <c:axId val="26383726"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13164,14 +13168,14 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="67075263"/>
+        <c:crossAx val="70940971"/>
         <c:crossesAt val="0"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="67075263"/>
+        <c:axId val="70940971"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13196,7 +13200,7 @@
                   <a:defRPr/>
                 </a:pPr>
                 <a:r>
-                  <a:rPr b="1" sz="900"/>
+                  <a:rPr sz="900"/>
                   <a:t>Running Time (Minutes)</a:t>
                 </a:r>
               </a:p>
@@ -13214,7 +13218,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="13797954"/>
+        <c:crossAx val="26383726"/>
         <c:crossesAt val="0"/>
       </c:valAx>
       <c:spPr>
@@ -13249,7 +13253,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart157.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart177.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
@@ -13469,11 +13473,11 @@
           </c:val>
         </c:ser>
         <c:gapWidth val="100"/>
-        <c:axId val="62916920"/>
-        <c:axId val="88303558"/>
+        <c:axId val="77420615"/>
+        <c:axId val="9746724"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="62916920"/>
+        <c:axId val="77420615"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13507,14 +13511,14 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="88303558"/>
+        <c:crossAx val="9746724"/>
         <c:crossesAt val="0"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="88303558"/>
+        <c:axId val="9746724"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13557,7 +13561,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="62916920"/>
+        <c:crossAx val="77420615"/>
         <c:crossesAt val="0"/>
       </c:valAx>
       <c:spPr>
@@ -13592,7 +13596,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart158.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart178.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
@@ -15459,11 +15463,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="73431484"/>
-        <c:axId val="28524322"/>
+        <c:axId val="7282186"/>
+        <c:axId val="3968558"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="73431484"/>
+        <c:axId val="7282186"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15497,14 +15501,14 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="28524322"/>
+        <c:crossAx val="3968558"/>
         <c:crossesAt val="0"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="28524322"/>
+        <c:axId val="3968558"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15547,7 +15551,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="73431484"/>
+        <c:crossAx val="7282186"/>
         <c:crossesAt val="0"/>
       </c:valAx>
       <c:spPr>
@@ -15582,286 +15586,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart159.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:rPr sz="1300"/>
-              <a:t>中间数据</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-    </c:title>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'distinct-d2F'!$B$56</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>mrcube</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="004586"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:cat>
-            <c:strRef>
-              <c:f>'distinct-d2F'!$A$57:$A$60</c:f>
-              <c:strCache>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>10^6</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>10^7</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>10^8</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>10^9</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'distinct-d2F'!$B$57:$B$60</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>718171</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3474077</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>21647617</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>334058889</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'distinct-d2F'!$C$56</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>tscube</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="ff420e"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:cat>
-            <c:strRef>
-              <c:f>'distinct-d2F'!$A$57:$A$60</c:f>
-              <c:strCache>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>10^6</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>10^7</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>10^8</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>10^9</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'distinct-d2F'!$C$57:$C$60</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>720942</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3486368</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>21773566</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>167879138</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:gapWidth val="100"/>
-        <c:axId val="38647444"/>
-        <c:axId val="90090284"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="38647444"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr sz="900"/>
-                  <a:t>Dataset Size</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-        </c:title>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln>
-            <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
-            </a:solidFill>
-          </a:ln>
-        </c:spPr>
-        <c:crossAx val="90090284"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="90090284"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln>
-              <a:solidFill>
-                <a:srgbClr val="b3b3b3"/>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr sz="900"/>
-                  <a:t>MR2 reduce output</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-        </c:title>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln>
-            <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
-            </a:solidFill>
-          </a:ln>
-        </c:spPr>
-        <c:crossAx val="38647444"/>
-        <c:crosses val="autoZero"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="b3b3b3"/>
-          </a:solidFill>
-        </a:ln>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:srgbClr val="ffffff"/>
-    </a:solidFill>
-    <a:ln>
-      <a:noFill/>
-    </a:ln>
-  </c:spPr>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart160.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart179.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
@@ -16191,11 +15916,11 @@
           </c:val>
         </c:ser>
         <c:gapWidth val="100"/>
-        <c:axId val="85314704"/>
-        <c:axId val="89115286"/>
+        <c:axId val="56557651"/>
+        <c:axId val="79508105"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="85314704"/>
+        <c:axId val="56557651"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -16211,14 +15936,14 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="89115286"/>
+        <c:crossAx val="79508105"/>
         <c:crossesAt val="0"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="89115286"/>
+        <c:axId val="79508105"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -16243,7 +15968,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="85314704"/>
+        <c:crossAx val="56557651"/>
         <c:crossesAt val="0"/>
       </c:valAx>
       <c:spPr>
@@ -16278,7 +16003,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart161.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart180.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
@@ -16608,11 +16333,11 @@
           </c:val>
         </c:ser>
         <c:gapWidth val="100"/>
-        <c:axId val="48296679"/>
-        <c:axId val="55931170"/>
+        <c:axId val="68458663"/>
+        <c:axId val="74672845"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="48296679"/>
+        <c:axId val="68458663"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -16628,14 +16353,14 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="55931170"/>
+        <c:crossAx val="74672845"/>
         <c:crossesAt val="0"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="55931170"/>
+        <c:axId val="74672845"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -16660,7 +16385,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="48296679"/>
+        <c:crossAx val="68458663"/>
         <c:crossesAt val="0"/>
       </c:valAx>
       <c:spPr>
@@ -16695,7 +16420,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart162.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart181.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
@@ -17025,11 +16750,11 @@
           </c:val>
         </c:ser>
         <c:gapWidth val="100"/>
-        <c:axId val="13837153"/>
-        <c:axId val="94262397"/>
+        <c:axId val="51262798"/>
+        <c:axId val="87000207"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="13837153"/>
+        <c:axId val="51262798"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -17045,14 +16770,14 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="94262397"/>
+        <c:crossAx val="87000207"/>
         <c:crossesAt val="0"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="94262397"/>
+        <c:axId val="87000207"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -17077,7 +16802,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="13837153"/>
+        <c:crossAx val="51262798"/>
         <c:crossesAt val="0"/>
       </c:valAx>
       <c:spPr>
@@ -17112,7 +16837,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart163.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart182.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
@@ -17442,11 +17167,11 @@
           </c:val>
         </c:ser>
         <c:gapWidth val="100"/>
-        <c:axId val="84571661"/>
-        <c:axId val="34270399"/>
+        <c:axId val="79537115"/>
+        <c:axId val="65186452"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="84571661"/>
+        <c:axId val="79537115"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -17462,14 +17187,14 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="34270399"/>
+        <c:crossAx val="65186452"/>
         <c:crossesAt val="0"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="34270399"/>
+        <c:axId val="65186452"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -17494,7 +17219,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="84571661"/>
+        <c:crossAx val="79537115"/>
         <c:crossesAt val="0"/>
       </c:valAx>
       <c:spPr>
@@ -17755,14 +17480,14 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>120960</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>100800</xdr:rowOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>23400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>392400</xdr:colOff>
-      <xdr:row>70</xdr:row>
-      <xdr:rowOff>73800</xdr:rowOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>10080</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -18001,36 +17726,6 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>1183680</xdr:colOff>
-      <xdr:row>56</xdr:row>
-      <xdr:rowOff>115560</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>609480</xdr:colOff>
-      <xdr:row>68</xdr:row>
-      <xdr:rowOff>180000</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame>
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="15" name=""/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="4520520" y="17077680"/>
-        <a:ext cx="5762880" cy="3239280"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -18051,7 +17746,7 @@
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="16" name=""/>
+        <xdr:cNvPr id="15" name=""/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -18081,7 +17776,7 @@
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="17" name=""/>
+        <xdr:cNvPr id="16" name=""/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -18116,7 +17811,7 @@
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="18" name=""/>
+        <xdr:cNvPr id="17" name=""/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -18146,7 +17841,7 @@
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="19" name=""/>
+        <xdr:cNvPr id="18" name=""/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -18817,8 +18512,8 @@
   </sheetPr>
   <dimension ref="A1:F61"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A10" view="normal" windowProtection="false" workbookViewId="0" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100">
-      <selection activeCell="F36" activeCellId="0" pane="topLeft" sqref="F36"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A13" view="normal" windowProtection="false" workbookViewId="0" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100">
+      <selection activeCell="E36" activeCellId="0" pane="topLeft" sqref="E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="24"/>
@@ -19465,8 +19160,8 @@
   </sheetPr>
   <dimension ref="A1:F65"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A46" view="normal" windowProtection="false" workbookViewId="0" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100">
-      <selection activeCell="M55" activeCellId="0" pane="topLeft" sqref="M55"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A46" view="normal" windowProtection="false" workbookViewId="0" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100">
+      <selection activeCell="C57" activeCellId="0" pane="topLeft" sqref="C57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="24"/>
@@ -20092,7 +19787,7 @@
         <v>78557409</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="24" outlineLevel="0" r="55">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.5" outlineLevel="0" r="55">
       <c r="A55" s="0" t="s">
         <v>37</v>
       </c>
@@ -20176,8 +19871,8 @@
   </sheetPr>
   <dimension ref="A1:F61"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A46" view="normal" windowProtection="false" workbookViewId="0" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100">
-      <selection activeCell="C65" activeCellId="0" pane="topLeft" sqref="C65"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A49" view="normal" windowProtection="false" workbookViewId="0" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100">
+      <selection activeCell="B75" activeCellId="0" pane="topLeft" sqref="B75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="24"/>
@@ -20806,10 +20501,10 @@
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.6" outlineLevel="0" r="57">
       <c r="A57" s="4"/>
       <c r="B57" s="4" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.5" outlineLevel="0" r="58">
@@ -20875,8 +20570,8 @@
   </sheetPr>
   <dimension ref="A1:F60"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A46" view="normal" windowProtection="false" workbookViewId="0" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100">
-      <selection activeCell="K54" activeCellId="0" pane="topLeft" sqref="K54"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A58" view="normal" windowProtection="false" workbookViewId="0" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100">
+      <selection activeCell="G10" activeCellId="0" pane="topLeft" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="24"/>
@@ -20898,7 +20593,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="24" outlineLevel="0" r="2">
       <c r="A2" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>2</v>
@@ -21006,7 +20701,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="24" outlineLevel="0" r="9">
       <c r="A9" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>12</v>
@@ -21084,7 +20779,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="24" outlineLevel="0" r="16">
       <c r="A16" s="7" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>2</v>
@@ -21503,55 +21198,55 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.6" outlineLevel="0" r="56">
-      <c r="A56" s="4"/>
-      <c r="B56" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="C56" s="4" t="s">
-        <v>42</v>
+      <c r="A56" s="17"/>
+      <c r="B56" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="C56" s="17" t="s">
+        <v>39</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.5" outlineLevel="0" r="57">
-      <c r="A57" s="4" t="s">
+      <c r="A57" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="B57" s="4" t="n">
+      <c r="B57" s="17" t="n">
         <v>718171</v>
       </c>
-      <c r="C57" s="4" t="n">
+      <c r="C57" s="17" t="n">
         <v>720942</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.5" outlineLevel="0" r="58">
-      <c r="A58" s="4" t="s">
+      <c r="A58" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="B58" s="4" t="n">
+      <c r="B58" s="17" t="n">
         <v>3474077</v>
       </c>
-      <c r="C58" s="4" t="n">
+      <c r="C58" s="17" t="n">
         <v>3486368</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.5" outlineLevel="0" r="59">
-      <c r="A59" s="4" t="s">
+      <c r="A59" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="B59" s="4" t="n">
+      <c r="B59" s="17" t="n">
         <v>21647617</v>
       </c>
-      <c r="C59" s="4" t="n">
+      <c r="C59" s="17" t="n">
         <v>21773566</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.5" outlineLevel="0" r="60">
-      <c r="A60" s="4" t="s">
+      <c r="A60" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="B60" s="4" t="n">
+      <c r="B60" s="17" t="n">
         <v>334058889</v>
       </c>
-      <c r="C60" s="4" t="n">
+      <c r="C60" s="17" t="n">
         <v>167879138</v>
       </c>
     </row>
@@ -21574,7 +21269,7 @@
   </sheetPr>
   <dimension ref="A1:C46"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A19" view="normal" windowProtection="false" workbookViewId="0" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100">
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100">
       <selection activeCell="M13" activeCellId="0" pane="topLeft" sqref="M13"/>
     </sheetView>
   </sheetViews>
@@ -21589,13 +21284,13 @@
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.5" outlineLevel="0" r="1"/>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.5" outlineLevel="0" r="3">
       <c r="A3" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>44</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>46</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.9" outlineLevel="0" r="4">
@@ -21820,13 +21515,13 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.5" outlineLevel="0" r="26">
       <c r="A26" s="4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.9" outlineLevel="0" r="27">
@@ -22082,13 +21777,13 @@
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.5" outlineLevel="0" r="3">
       <c r="A3" s="4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.9" outlineLevel="0" r="4">
@@ -22313,13 +22008,13 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.5" outlineLevel="0" r="26">
       <c r="A26" s="4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.9" outlineLevel="0" r="27">
